--- a/GeraffteLastkollektive/RescueHoist_geraffter_Kollektiv.xlsx
+++ b/GeraffteLastkollektive/RescueHoist_geraffter_Kollektiv.xlsx
@@ -487,7 +487,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>163.4400000000022</v>
+        <v>300</v>
       </c>
       <c r="B2" t="n">
         <v>542.5</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1076.399999999965</v>
+        <v>1212.959999999963</v>
       </c>
       <c r="B3" t="n">
         <v>297.5</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1239.839999999967</v>
+        <v>1512.959999999963</v>
       </c>
       <c r="B4" t="n">
         <v>542.5</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2152.79999999993</v>
+        <v>2425.919999999925</v>
       </c>
       <c r="B5" t="n">
         <v>297.5</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2316.239999999932</v>
+        <v>2725.919999999925</v>
       </c>
       <c r="B6" t="n">
         <v>542.5</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3229.199999999894</v>
+        <v>3638.879999999888</v>
       </c>
       <c r="B7" t="n">
         <v>297.5</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3392.639999999896</v>
+        <v>3938.879999999887</v>
       </c>
       <c r="B8" t="n">
         <v>542.5</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4305.599999999858</v>
+        <v>4851.83999999985</v>
       </c>
       <c r="B9" t="n">
         <v>297.5</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4469.03999999986</v>
+        <v>5151.83999999985</v>
       </c>
       <c r="B10" t="n">
         <v>542.5</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5381.999999999823</v>
+        <v>6064.799999999813</v>
       </c>
       <c r="B11" t="n">
         <v>297.5</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5545.439999999825</v>
+        <v>6364.799999999812</v>
       </c>
       <c r="B12" t="n">
         <v>542.5</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6458.399999999788</v>
+        <v>7277.759999999774</v>
       </c>
       <c r="B13" t="n">
         <v>297.5</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6621.839999999789</v>
+        <v>7577.759999999775</v>
       </c>
       <c r="B14" t="n">
         <v>542.5</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7534.799999999752</v>
+        <v>8490.719999999736</v>
       </c>
       <c r="B15" t="n">
         <v>297.5</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7698.239999999755</v>
+        <v>8790.719999999737</v>
       </c>
       <c r="B16" t="n">
         <v>542.5</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8611.199999999717</v>
+        <v>9703.679999999698</v>
       </c>
       <c r="B17" t="n">
         <v>297.5</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8774.639999999719</v>
+        <v>10003.6799999997</v>
       </c>
       <c r="B18" t="n">
         <v>542.5</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9687.599999999682</v>
+        <v>10916.63999999966</v>
       </c>
       <c r="B19" t="n">
         <v>297.5</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9851.039999999686</v>
+        <v>11216.63999999966</v>
       </c>
       <c r="B20" t="n">
         <v>542.5</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10763.99999999965</v>
+        <v>12129.59999999962</v>
       </c>
       <c r="B21" t="n">
         <v>297.5</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10927.43999999965</v>
+        <v>12429.59999999962</v>
       </c>
       <c r="B22" t="n">
         <v>542.5</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>11840.39999999962</v>
+        <v>13342.55999999959</v>
       </c>
       <c r="B23" t="n">
         <v>297.5</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>12003.83999999962</v>
+        <v>13642.55999999959</v>
       </c>
       <c r="B24" t="n">
         <v>542.5</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>12916.79999999958</v>
+        <v>14555.51999999955</v>
       </c>
       <c r="B25" t="n">
         <v>297.5</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>13080.23999999959</v>
+        <v>14855.51999999955</v>
       </c>
       <c r="B26" t="n">
         <v>542.5</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>13993.19999999955</v>
+        <v>15768.47999999951</v>
       </c>
       <c r="B27" t="n">
         <v>297.5</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>14156.63999999955</v>
+        <v>16068.47999999951</v>
       </c>
       <c r="B28" t="n">
         <v>542.5</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>15069.59999999951</v>
+        <v>16981.43999999947</v>
       </c>
       <c r="B29" t="n">
         <v>297.5</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>15233.03999999952</v>
+        <v>17281.43999999947</v>
       </c>
       <c r="B30" t="n">
         <v>542.5</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>16145.99999999948</v>
+        <v>18194.39999999943</v>
       </c>
       <c r="B31" t="n">
         <v>297.5</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>16309.43999999948</v>
+        <v>18494.39999999943</v>
       </c>
       <c r="B32" t="n">
         <v>542.5</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>17222.39999999944</v>
+        <v>19407.3599999994</v>
       </c>
       <c r="B33" t="n">
         <v>297.5</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>17385.83999999945</v>
+        <v>19707.3599999994</v>
       </c>
       <c r="B34" t="n">
         <v>542.5</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>18298.79999999941</v>
+        <v>20620.31999999936</v>
       </c>
       <c r="B35" t="n">
         <v>297.5</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>18462.23999999942</v>
+        <v>20920.31999999936</v>
       </c>
       <c r="B36" t="n">
         <v>542.5</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>19375.19999999938</v>
+        <v>21833.27999999932</v>
       </c>
       <c r="B37" t="n">
         <v>297.5</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>19538.63999999938</v>
+        <v>22133.27999999932</v>
       </c>
       <c r="B38" t="n">
         <v>542.5</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>20451.59999999934</v>
+        <v>23046.23999999928</v>
       </c>
       <c r="B39" t="n">
         <v>297.5</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>20615.03999999935</v>
+        <v>23346.23999999928</v>
       </c>
       <c r="B40" t="n">
         <v>542.5</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>21527.99999999931</v>
+        <v>24259.19999999925</v>
       </c>
       <c r="B41" t="n">
         <v>297.5</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>21691.43999999931</v>
+        <v>24559.19999999924</v>
       </c>
       <c r="B42" t="n">
         <v>542.5</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>22604.39999999928</v>
+        <v>25472.15999999921</v>
       </c>
       <c r="B43" t="n">
         <v>297.5</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>22767.83999999928</v>
+        <v>25772.15999999921</v>
       </c>
       <c r="B44" t="n">
         <v>542.5</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>23680.79999999924</v>
+        <v>26685.11999999917</v>
       </c>
       <c r="B45" t="n">
         <v>297.5</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>23844.23999999924</v>
+        <v>26985.11999999917</v>
       </c>
       <c r="B46" t="n">
         <v>542.5</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>24757.19999999921</v>
+        <v>27898.07999999913</v>
       </c>
       <c r="B47" t="n">
         <v>297.5</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>24920.63999999921</v>
+        <v>28198.07999999913</v>
       </c>
       <c r="B48" t="n">
         <v>542.5</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>25833.59999999918</v>
+        <v>29111.0399999991</v>
       </c>
       <c r="B49" t="n">
         <v>297.5</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>25997.03999999918</v>
+        <v>29411.0399999991</v>
       </c>
       <c r="B50" t="n">
         <v>542.5</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>26909.99999999914</v>
+        <v>30323.99999999906</v>
       </c>
       <c r="B51" t="n">
         <v>297.5</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>27073.43999999914</v>
+        <v>30623.99999999907</v>
       </c>
       <c r="B52" t="n">
         <v>542.5</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>27986.39999999911</v>
+        <v>31536.95999999903</v>
       </c>
       <c r="B53" t="n">
         <v>297.5</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>28149.83999999911</v>
+        <v>31836.95999999903</v>
       </c>
       <c r="B54" t="n">
         <v>542.5</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>29062.79999999908</v>
+        <v>32749.91999999899</v>
       </c>
       <c r="B55" t="n">
         <v>297.5</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>29226.23999999908</v>
+        <v>33049.91999999899</v>
       </c>
       <c r="B56" t="n">
         <v>542.5</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>30139.19999999904</v>
+        <v>33962.87999999896</v>
       </c>
       <c r="B57" t="n">
         <v>297.5</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>30302.63999999904</v>
+        <v>34262.87999999896</v>
       </c>
       <c r="B58" t="n">
         <v>542.5</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>31215.59999999901</v>
+        <v>35175.83999999893</v>
       </c>
       <c r="B59" t="n">
         <v>297.5</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>31379.03999999901</v>
+        <v>35475.83999999893</v>
       </c>
       <c r="B60" t="n">
         <v>542.5</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>32291.99999999897</v>
+        <v>36388.79999999889</v>
       </c>
       <c r="B61" t="n">
         <v>297.5</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>32455.43999999898</v>
+        <v>36688.79999999889</v>
       </c>
       <c r="B62" t="n">
         <v>542.5</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>33368.39999999894</v>
+        <v>37601.75999999885</v>
       </c>
       <c r="B63" t="n">
         <v>297.5</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>33531.83999999894</v>
+        <v>37901.75999999886</v>
       </c>
       <c r="B64" t="n">
         <v>542.5</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>34444.7999999989</v>
+        <v>38814.71999999882</v>
       </c>
       <c r="B65" t="n">
         <v>297.5</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>34608.23999999891</v>
+        <v>39114.71999999882</v>
       </c>
       <c r="B66" t="n">
         <v>542.5</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>35521.19999999887</v>
+        <v>40027.67999999879</v>
       </c>
       <c r="B67" t="n">
         <v>297.5</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>35684.63999999887</v>
+        <v>40327.67999999879</v>
       </c>
       <c r="B68" t="n">
         <v>542.5</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>36597.59999999883</v>
+        <v>41240.63999999875</v>
       </c>
       <c r="B69" t="n">
         <v>297.5</v>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>36761.03999999884</v>
+        <v>41540.63999999876</v>
       </c>
       <c r="B70" t="n">
         <v>542.5</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>37673.99999999881</v>
+        <v>42453.59999999872</v>
       </c>
       <c r="B71" t="n">
         <v>297.5</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>37837.43999999881</v>
+        <v>42753.59999999872</v>
       </c>
       <c r="B72" t="n">
         <v>542.5</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>38750.39999999877</v>
+        <v>43666.55999999868</v>
       </c>
       <c r="B73" t="n">
         <v>297.5</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>38913.83999999877</v>
+        <v>43966.55999999869</v>
       </c>
       <c r="B74" t="n">
         <v>542.5</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>39826.79999999874</v>
+        <v>44879.51999999865</v>
       </c>
       <c r="B75" t="n">
         <v>297.5</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>39990.23999999874</v>
+        <v>45179.51999999865</v>
       </c>
       <c r="B76" t="n">
         <v>542.5</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>40903.1999999987</v>
+        <v>46092.47999999861</v>
       </c>
       <c r="B77" t="n">
         <v>297.5</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>41066.6399999987</v>
+        <v>46392.47999999861</v>
       </c>
       <c r="B78" t="n">
         <v>542.5</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>41979.59999999867</v>
+        <v>47305.43999999858</v>
       </c>
       <c r="B79" t="n">
         <v>297.5</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>42143.03999999867</v>
+        <v>47605.43999999858</v>
       </c>
       <c r="B80" t="n">
         <v>542.5</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>43055.99999999863</v>
+        <v>48518.39999999855</v>
       </c>
       <c r="B81" t="n">
         <v>297.5</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>43219.43999999863</v>
+        <v>48818.39999999855</v>
       </c>
       <c r="B82" t="n">
         <v>542.5</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>44132.3999999986</v>
+        <v>49731.35999999851</v>
       </c>
       <c r="B83" t="n">
         <v>297.5</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>44295.83999999861</v>
+        <v>50031.35999999851</v>
       </c>
       <c r="B84" t="n">
         <v>542.5</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>45208.79999999857</v>
+        <v>50944.31999999848</v>
       </c>
       <c r="B85" t="n">
         <v>297.5</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>45372.23999999857</v>
+        <v>51244.31999999848</v>
       </c>
       <c r="B86" t="n">
         <v>542.5</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>46285.19999999853</v>
+        <v>52157.27999999844</v>
       </c>
       <c r="B87" t="n">
         <v>297.5</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>46448.63999999854</v>
+        <v>52457.27999999844</v>
       </c>
       <c r="B88" t="n">
         <v>542.5</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>47361.5999999985</v>
+        <v>53370.2399999984</v>
       </c>
       <c r="B89" t="n">
         <v>297.5</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>47525.0399999985</v>
+        <v>53670.23999999841</v>
       </c>
       <c r="B90" t="n">
         <v>542.5</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>48437.99999999846</v>
+        <v>54583.19999999837</v>
       </c>
       <c r="B91" t="n">
         <v>297.5</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>48601.43999999847</v>
+        <v>54883.19999999837</v>
       </c>
       <c r="B92" t="n">
         <v>542.5</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>49514.39999999843</v>
+        <v>55796.15999999834</v>
       </c>
       <c r="B93" t="n">
         <v>297.5</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>49677.83999999843</v>
+        <v>56096.15999999834</v>
       </c>
       <c r="B94" t="n">
         <v>542.5</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>50590.79999999839</v>
+        <v>57009.1199999983</v>
       </c>
       <c r="B95" t="n">
         <v>297.5</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>50754.2399999984</v>
+        <v>57309.11999999831</v>
       </c>
       <c r="B96" t="n">
         <v>542.5</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>51667.19999999837</v>
+        <v>58222.07999999827</v>
       </c>
       <c r="B97" t="n">
         <v>297.5</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>51830.63999999837</v>
+        <v>58522.07999999826</v>
       </c>
       <c r="B98" t="n">
         <v>542.5</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>52743.59999999833</v>
+        <v>59435.03999999822</v>
       </c>
       <c r="B99" t="n">
         <v>297.5</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>52907.03999999833</v>
+        <v>59735.03999999822</v>
       </c>
       <c r="B100" t="n">
         <v>542.5</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>53819.9999999983</v>
+        <v>60647.99999999817</v>
       </c>
       <c r="B101" t="n">
         <v>297.5</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>53983.4399999983</v>
+        <v>60947.99999999817</v>
       </c>
       <c r="B102" t="n">
         <v>542.5</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>54896.39999999826</v>
+        <v>61860.95999999813</v>
       </c>
       <c r="B103" t="n">
         <v>297.5</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>55059.83999999826</v>
+        <v>62160.95999999812</v>
       </c>
       <c r="B104" t="n">
         <v>542.5</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>55972.79999999823</v>
+        <v>63073.91999999808</v>
       </c>
       <c r="B105" t="n">
         <v>297.5</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>56136.23999999823</v>
+        <v>63373.91999999808</v>
       </c>
       <c r="B106" t="n">
         <v>542.5</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>57049.19999999819</v>
+        <v>64286.87999999803</v>
       </c>
       <c r="B107" t="n">
         <v>297.5</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>57212.63999999819</v>
+        <v>64586.87999999803</v>
       </c>
       <c r="B108" t="n">
         <v>542.5</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>58125.59999999816</v>
+        <v>65499.83999999799</v>
       </c>
       <c r="B109" t="n">
         <v>297.5</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>58289.03999999817</v>
+        <v>65799.83999999797</v>
       </c>
       <c r="B110" t="n">
         <v>542.5</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>59201.99999999812</v>
+        <v>66712.79999999794</v>
       </c>
       <c r="B111" t="n">
         <v>297.5</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>59365.43999999813</v>
+        <v>67012.79999999794</v>
       </c>
       <c r="B112" t="n">
         <v>542.5</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>60278.39999999808</v>
+        <v>67925.75999999788</v>
       </c>
       <c r="B113" t="n">
         <v>297.5</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>60337.72799999809</v>
+        <v>68225.75999999788</v>
       </c>
       <c r="B114" t="n">
         <v>555</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>60497.56799999809</v>
+        <v>68525.75999999788</v>
       </c>
       <c r="B115" t="n">
         <v>555</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>73074.38399999808</v>
+        <v>72125.75999999788</v>
       </c>
       <c r="B116" t="n">
         <v>5</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>73102.46399999807</v>
+        <v>72425.75999999788</v>
       </c>
       <c r="B117" t="n">
         <v>555</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>75648.95999999809</v>
+        <v>74972.25599999788</v>
       </c>
       <c r="B118" t="n">
         <v>5</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>75676.60799999809</v>
+        <v>75272.25599999788</v>
       </c>
       <c r="B119" t="n">
         <v>555</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>85137.11999999809</v>
+        <v>78872.25599999788</v>
       </c>
       <c r="B120" t="n">
         <v>5</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>85622.39999999807</v>
+        <v>79357.53599999787</v>
       </c>
       <c r="B121" t="n">
         <v>552.5</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>93243.88799999807</v>
+        <v>82957.53599999787</v>
       </c>
       <c r="B122" t="n">
         <v>5</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>95609.66399999807</v>
+        <v>85323.31199999788</v>
       </c>
       <c r="B123" t="n">
         <v>545</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>108827.7119999981</v>
+        <v>88923.31199999788</v>
       </c>
       <c r="B124" t="n">
         <v>12.5</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>108977.4719999981</v>
+        <v>89223.31199999787</v>
       </c>
       <c r="B125" t="n">
         <v>545</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>114791.6159999981</v>
+        <v>92823.31199999787</v>
       </c>
       <c r="B126" t="n">
         <v>15</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>115180.8479999981</v>
+        <v>93212.54399999787</v>
       </c>
       <c r="B127" t="n">
         <v>542.5</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>115956.7199999981</v>
+        <v>93988.41599999787</v>
       </c>
       <c r="B128" t="n">
         <v>542.5</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>116120.1599999981</v>
+        <v>94288.41599999787</v>
       </c>
       <c r="B129" t="n">
         <v>542.5</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>116445.3119999981</v>
+        <v>94613.56799999787</v>
       </c>
       <c r="B130" t="n">
         <v>540</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>121780.2239999981</v>
+        <v>98213.56799999787</v>
       </c>
       <c r="B131" t="n">
         <v>40</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>131736.3839999981</v>
+        <v>101813.5679999979</v>
       </c>
       <c r="B132" t="n">
         <v>537.5</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>132505.3439999981</v>
+        <v>102582.5279999979</v>
       </c>
       <c r="B133" t="n">
         <v>537.5</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>136293.4079999981</v>
+        <v>106182.5279999979</v>
       </c>
       <c r="B134" t="n">
         <v>40</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>136391.1839999981</v>
+        <v>106482.5279999979</v>
       </c>
       <c r="B135" t="n">
         <v>537.5</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>137111.7599999981</v>
+        <v>107203.1039999979</v>
       </c>
       <c r="B136" t="n">
         <v>535</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>137916.1439999981</v>
+        <v>108007.4879999979</v>
       </c>
       <c r="B137" t="n">
         <v>52.5</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>138087.0719999981</v>
+        <v>108307.4879999979</v>
       </c>
       <c r="B138" t="n">
         <v>535</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>138357.6479999981</v>
+        <v>108607.4879999979</v>
       </c>
       <c r="B139" t="n">
         <v>52.5</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>140361.5519999981</v>
+        <v>110611.3919999978</v>
       </c>
       <c r="B140" t="n">
         <v>535</v>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>140582.4479999981</v>
+        <v>110911.3919999978</v>
       </c>
       <c r="B141" t="n">
         <v>55</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>141539.6159999981</v>
+        <v>111868.5599999979</v>
       </c>
       <c r="B142" t="n">
         <v>535</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>143360.6399999981</v>
+        <v>113689.5839999979</v>
       </c>
       <c r="B143" t="n">
         <v>55</v>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>149689.2959999981</v>
+        <v>117289.5839999979</v>
       </c>
       <c r="B144" t="n">
         <v>535</v>
@@ -5063,7 +5063,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>150740.6399999981</v>
+        <v>118340.9279999979</v>
       </c>
       <c r="B145" t="n">
         <v>535</v>
@@ -5095,7 +5095,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>151122.383999998</v>
+        <v>118722.6719999979</v>
       </c>
       <c r="B146" t="n">
         <v>57.5</v>
@@ -5127,7 +5127,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>152707.679999998</v>
+        <v>120307.9679999978</v>
       </c>
       <c r="B147" t="n">
         <v>60</v>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>153034.415999998</v>
+        <v>120634.7039999979</v>
       </c>
       <c r="B148" t="n">
         <v>532.5</v>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>154040.399999998</v>
+        <v>121640.6879999978</v>
       </c>
       <c r="B149" t="n">
         <v>65</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>154374.335999998</v>
+        <v>121974.6239999978</v>
       </c>
       <c r="B150" t="n">
         <v>532.5</v>
@@ -5255,7 +5255,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>157297.247999998</v>
+        <v>124897.5359999978</v>
       </c>
       <c r="B151" t="n">
         <v>532.5</v>
@@ -5287,7 +5287,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>159525.647999998</v>
+        <v>127125.9359999978</v>
       </c>
       <c r="B152" t="n">
         <v>67.5</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>160864.559999998</v>
+        <v>128464.8479999978</v>
       </c>
       <c r="B153" t="n">
         <v>75</v>
@@ -5351,7 +5351,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>169234.127999998</v>
+        <v>132064.8479999978</v>
       </c>
       <c r="B154" t="n">
         <v>530</v>
@@ -5383,7 +5383,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>180541.2959999979</v>
+        <v>135664.8479999978</v>
       </c>
       <c r="B155" t="n">
         <v>75</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>180874.799999998</v>
+        <v>135998.3519999979</v>
       </c>
       <c r="B156" t="n">
         <v>530</v>
@@ -5447,7 +5447,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>182138.1119999979</v>
+        <v>137261.6639999978</v>
       </c>
       <c r="B157" t="n">
         <v>75</v>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>190267.6319999979</v>
+        <v>140861.6639999978</v>
       </c>
       <c r="B158" t="n">
         <v>530</v>
@@ -5511,7 +5511,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>194113.0079999979</v>
+        <v>144461.6639999978</v>
       </c>
       <c r="B159" t="n">
         <v>85</v>
@@ -5543,7 +5543,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>194616.5759999979</v>
+        <v>144965.2319999977</v>
       </c>
       <c r="B160" t="n">
         <v>85</v>
@@ -5575,7 +5575,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>194779.1519999979</v>
+        <v>145265.2319999978</v>
       </c>
       <c r="B161" t="n">
         <v>530</v>
@@ -5607,7 +5607,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>195539.615999998</v>
+        <v>146025.6959999978</v>
       </c>
       <c r="B162" t="n">
         <v>85</v>
@@ -5639,7 +5639,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>196029.6479999979</v>
+        <v>146515.7279999978</v>
       </c>
       <c r="B163" t="n">
         <v>527.5</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>196034.255999998</v>
+        <v>146815.7279999978</v>
       </c>
       <c r="B164" t="n">
         <v>87.5</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>196625.375999998</v>
+        <v>147406.8479999978</v>
       </c>
       <c r="B165" t="n">
         <v>527.5</v>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>210051.7919999979</v>
+        <v>151006.8479999978</v>
       </c>
       <c r="B166" t="n">
         <v>87.5</v>
@@ -5767,7 +5767,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>211182.4799999979</v>
+        <v>152137.5359999978</v>
       </c>
       <c r="B167" t="n">
         <v>527.5</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>211944.383999998</v>
+        <v>152899.4399999979</v>
       </c>
       <c r="B168" t="n">
         <v>92.5</v>
@@ -5831,7 +5831,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>214786.799999998</v>
+        <v>155741.8559999978</v>
       </c>
       <c r="B169" t="n">
         <v>527.5</v>
@@ -5863,7 +5863,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>214789.823999998</v>
+        <v>156041.8559999978</v>
       </c>
       <c r="B170" t="n">
         <v>92.5</v>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>217011.167999998</v>
+        <v>158263.1999999979</v>
       </c>
       <c r="B171" t="n">
         <v>527.5</v>
@@ -5927,7 +5927,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>217679.0399999979</v>
+        <v>158931.0719999979</v>
       </c>
       <c r="B172" t="n">
         <v>525</v>
@@ -5959,7 +5959,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>217918.799999998</v>
+        <v>159231.0719999979</v>
       </c>
       <c r="B173" t="n">
         <v>100</v>
@@ -5991,7 +5991,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>220454.2079999979</v>
+        <v>161766.4799999978</v>
       </c>
       <c r="B174" t="n">
         <v>525</v>
@@ -6023,7 +6023,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>222169.247999998</v>
+        <v>163481.5199999978</v>
       </c>
       <c r="B175" t="n">
         <v>105</v>
@@ -6055,7 +6055,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>224425.1519999979</v>
+        <v>165737.4239999978</v>
       </c>
       <c r="B176" t="n">
         <v>525</v>
@@ -6087,7 +6087,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>235770.047999998</v>
+        <v>169337.4239999978</v>
       </c>
       <c r="B177" t="n">
         <v>107.5</v>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>235774.7999999979</v>
+        <v>169637.4239999978</v>
       </c>
       <c r="B178" t="n">
         <v>107.5</v>
@@ -6151,7 +6151,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>236101.535999998</v>
+        <v>169964.1599999979</v>
       </c>
       <c r="B179" t="n">
         <v>525</v>
@@ -6183,7 +6183,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>237986.063999998</v>
+        <v>171848.6879999979</v>
       </c>
       <c r="B180" t="n">
         <v>110</v>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>238135.823999998</v>
+        <v>172148.6879999979</v>
       </c>
       <c r="B181" t="n">
         <v>525</v>
@@ -6247,7 +6247,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>239445.6479999979</v>
+        <v>173458.5119999978</v>
       </c>
       <c r="B182" t="n">
         <v>120</v>
@@ -6279,7 +6279,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>239824.511999998</v>
+        <v>173837.3759999979</v>
       </c>
       <c r="B183" t="n">
         <v>525</v>
@@ -6311,7 +6311,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>241848.719999998</v>
+        <v>175861.5839999979</v>
       </c>
       <c r="B184" t="n">
         <v>120</v>
@@ -6343,7 +6343,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>250055.567999998</v>
+        <v>179461.5839999979</v>
       </c>
       <c r="B185" t="n">
         <v>525</v>
@@ -6375,7 +6375,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>252314.207999998</v>
+        <v>181720.2239999979</v>
       </c>
       <c r="B186" t="n">
         <v>122.5</v>
@@ -6407,7 +6407,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>252724.4639999981</v>
+        <v>182130.4799999979</v>
       </c>
       <c r="B187" t="n">
         <v>525</v>
@@ -6439,7 +6439,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>256130.495999998</v>
+        <v>185536.5119999978</v>
       </c>
       <c r="B188" t="n">
         <v>127.5</v>
@@ -6471,7 +6471,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>258071.3279999979</v>
+        <v>187477.3439999978</v>
       </c>
       <c r="B189" t="n">
         <v>135</v>
@@ -6503,7 +6503,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>260837.711999998</v>
+        <v>190243.7279999978</v>
       </c>
       <c r="B190" t="n">
         <v>140</v>
@@ -6535,7 +6535,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>263255.1839999981</v>
+        <v>192661.1999999979</v>
       </c>
       <c r="B191" t="n">
         <v>522.5</v>
@@ -6567,7 +6567,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>263259.3599999981</v>
+        <v>192961.1999999979</v>
       </c>
       <c r="B192" t="n">
         <v>140</v>
@@ -6599,7 +6599,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>271102.8959999979</v>
+        <v>196561.1999999979</v>
       </c>
       <c r="B193" t="n">
         <v>522.5</v>
@@ -6631,7 +6631,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>272150.2079999981</v>
+        <v>197608.511999998</v>
       </c>
       <c r="B194" t="n">
         <v>142.5</v>
@@ -6663,7 +6663,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>273402.5759999981</v>
+        <v>198860.8799999981</v>
       </c>
       <c r="B195" t="n">
         <v>142.5</v>
@@ -6695,7 +6695,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>281834.3519999982</v>
+        <v>202460.8799999981</v>
       </c>
       <c r="B196" t="n">
         <v>522.5</v>
@@ -6727,7 +6727,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>286158.383999998</v>
+        <v>206060.8799999981</v>
       </c>
       <c r="B197" t="n">
         <v>150</v>
@@ -6759,7 +6759,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>287326.079999998</v>
+        <v>207228.5759999981</v>
       </c>
       <c r="B198" t="n">
         <v>522.5</v>
@@ -6791,7 +6791,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>295313.9039999981</v>
+        <v>210828.5759999981</v>
       </c>
       <c r="B199" t="n">
         <v>150</v>
@@ -6823,7 +6823,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>295980.9119999981</v>
+        <v>211495.5839999982</v>
       </c>
       <c r="B200" t="n">
         <v>522.5</v>
@@ -6855,7 +6855,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>295990.8479999981</v>
+        <v>211795.5839999982</v>
       </c>
       <c r="B201" t="n">
         <v>155</v>
@@ -6887,7 +6887,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>299377.5839999979</v>
+        <v>215182.319999998</v>
       </c>
       <c r="B202" t="n">
         <v>522.5</v>
@@ -6919,7 +6919,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>305728.4159999981</v>
+        <v>218782.319999998</v>
       </c>
       <c r="B203" t="n">
         <v>155</v>
@@ -6951,7 +6951,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>310734.7199999981</v>
+        <v>222382.319999998</v>
       </c>
       <c r="B204" t="n">
         <v>522.5</v>
@@ -6983,7 +6983,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>313103.663999998</v>
+        <v>224751.2639999979</v>
       </c>
       <c r="B205" t="n">
         <v>155</v>
@@ -7015,7 +7015,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>313756.271999998</v>
+        <v>225403.8719999979</v>
       </c>
       <c r="B206" t="n">
         <v>520</v>
@@ -7047,7 +7047,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>318308.399999998</v>
+        <v>229003.8719999979</v>
       </c>
       <c r="B207" t="n">
         <v>155</v>
@@ -7079,7 +7079,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>318450.6719999979</v>
+        <v>229303.8719999979</v>
       </c>
       <c r="B208" t="n">
         <v>520</v>
@@ -7111,7 +7111,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>324029.3759999981</v>
+        <v>232903.8719999979</v>
       </c>
       <c r="B209" t="n">
         <v>155</v>
@@ -7143,7 +7143,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>336441.8879999979</v>
+        <v>236503.8719999979</v>
       </c>
       <c r="B210" t="n">
         <v>520</v>
@@ -7175,7 +7175,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>340789.535999998</v>
+        <v>240103.8719999979</v>
       </c>
       <c r="B211" t="n">
         <v>157.5</v>
@@ -7207,7 +7207,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>348482.015999998</v>
+        <v>243703.8719999979</v>
       </c>
       <c r="B212" t="n">
         <v>160</v>
@@ -7239,7 +7239,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>354159.9359999979</v>
+        <v>247303.8719999979</v>
       </c>
       <c r="B213" t="n">
         <v>160</v>
@@ -7271,7 +7271,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>355287.4559999979</v>
+        <v>248431.391999998</v>
       </c>
       <c r="B214" t="n">
         <v>520</v>
@@ -7303,7 +7303,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>362247.1199999978</v>
+        <v>252031.391999998</v>
       </c>
       <c r="B215" t="n">
         <v>165</v>
@@ -7335,7 +7335,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>362516.8319999979</v>
+        <v>252331.3919999979</v>
       </c>
       <c r="B216" t="n">
         <v>167.5</v>
@@ -7367,7 +7367,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>364130.6399999978</v>
+        <v>253945.1999999979</v>
       </c>
       <c r="B217" t="n">
         <v>520</v>
@@ -7399,7 +7399,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>364136.9759999978</v>
+        <v>254245.1999999979</v>
       </c>
       <c r="B218" t="n">
         <v>170</v>
@@ -7431,7 +7431,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>364626.2879999976</v>
+        <v>254734.5119999977</v>
       </c>
       <c r="B219" t="n">
         <v>520</v>
@@ -7463,7 +7463,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>374705.4239999978</v>
+        <v>258334.5119999977</v>
       </c>
       <c r="B220" t="n">
         <v>170</v>
@@ -7495,7 +7495,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>377920.6559999976</v>
+        <v>261549.7439999976</v>
       </c>
       <c r="B221" t="n">
         <v>520</v>
@@ -7527,7 +7527,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>378052.2719999978</v>
+        <v>261849.7439999976</v>
       </c>
       <c r="B222" t="n">
         <v>170</v>
@@ -7559,7 +7559,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>378703.2959999977</v>
+        <v>262500.7679999975</v>
       </c>
       <c r="B223" t="n">
         <v>520</v>
@@ -7591,7 +7591,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>378967.3919999978</v>
+        <v>262800.7679999975</v>
       </c>
       <c r="B224" t="n">
         <v>177.5</v>
@@ -7623,7 +7623,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>379703.6639999978</v>
+        <v>263537.0399999974</v>
       </c>
       <c r="B225" t="n">
         <v>517.5</v>
@@ -7655,7 +7655,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>381255.6959999979</v>
+        <v>265089.0719999975</v>
       </c>
       <c r="B226" t="n">
         <v>177.5</v>
@@ -7687,7 +7687,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>381308.3999999978</v>
+        <v>265389.0719999975</v>
       </c>
       <c r="B227" t="n">
         <v>517.5</v>
@@ -7719,7 +7719,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>381313.0079999978</v>
+        <v>265689.0719999975</v>
       </c>
       <c r="B228" t="n">
         <v>177.5</v>
@@ -7751,7 +7751,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>383203.4399999978</v>
+        <v>267579.5039999976</v>
       </c>
       <c r="B229" t="n">
         <v>517.5</v>
@@ -7783,7 +7783,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>383208.9119999979</v>
+        <v>267879.5039999975</v>
       </c>
       <c r="B230" t="n">
         <v>182.5</v>
@@ -7815,7 +7815,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>388311.2639999979</v>
+        <v>271479.5039999975</v>
       </c>
       <c r="B231" t="n">
         <v>517.5</v>
@@ -7847,7 +7847,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>388318.4639999978</v>
+        <v>271779.5039999975</v>
       </c>
       <c r="B232" t="n">
         <v>185</v>
@@ -7879,7 +7879,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>393342.0479999979</v>
+        <v>275379.5039999975</v>
       </c>
       <c r="B233" t="n">
         <v>517.5</v>
@@ -7911,7 +7911,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>393349.9679999977</v>
+        <v>275679.5039999975</v>
       </c>
       <c r="B234" t="n">
         <v>185</v>
@@ -7943,7 +7943,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>405534.5279999978</v>
+        <v>279279.5039999975</v>
       </c>
       <c r="B235" t="n">
         <v>515</v>
@@ -7975,7 +7975,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>405683.1359999978</v>
+        <v>279579.5039999975</v>
       </c>
       <c r="B236" t="n">
         <v>185</v>
@@ -8007,7 +8007,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>409313.2319999977</v>
+        <v>283179.5039999975</v>
       </c>
       <c r="B237" t="n">
         <v>187.5</v>
@@ -8039,7 +8039,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>409391.5679999978</v>
+        <v>283479.5039999975</v>
       </c>
       <c r="B238" t="n">
         <v>515</v>
@@ -8071,7 +8071,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>410387.9039999977</v>
+        <v>284475.8399999973</v>
       </c>
       <c r="B239" t="n">
         <v>187.5</v>
@@ -8103,7 +8103,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>412674.9119999979</v>
+        <v>286762.8479999975</v>
       </c>
       <c r="B240" t="n">
         <v>515</v>
@@ -8135,7 +8135,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>412681.6799999978</v>
+        <v>287062.8479999975</v>
       </c>
       <c r="B241" t="n">
         <v>190</v>
@@ -8167,7 +8167,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>412933.8239999976</v>
+        <v>287362.8479999974</v>
       </c>
       <c r="B242" t="n">
         <v>515</v>
@@ -8199,7 +8199,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>413059.1039999977</v>
+        <v>287662.8479999974</v>
       </c>
       <c r="B243" t="n">
         <v>190</v>
@@ -8231,7 +8231,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>413219.9519999977</v>
+        <v>287962.8479999974</v>
       </c>
       <c r="B244" t="n">
         <v>515</v>
@@ -8263,7 +8263,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>413232.3359999977</v>
+        <v>288262.8479999974</v>
       </c>
       <c r="B245" t="n">
         <v>192.5</v>
@@ -8295,7 +8295,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>413955.6479999977</v>
+        <v>288986.1599999974</v>
       </c>
       <c r="B246" t="n">
         <v>192.5</v>
@@ -8327,7 +8327,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>415669.2479999978</v>
+        <v>290699.7599999974</v>
       </c>
       <c r="B247" t="n">
         <v>515</v>
@@ -8359,7 +8359,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>415873.5839999977</v>
+        <v>290999.7599999974</v>
       </c>
       <c r="B248" t="n">
         <v>195</v>
@@ -8391,7 +8391,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>416046.0959999978</v>
+        <v>291299.7599999974</v>
       </c>
       <c r="B249" t="n">
         <v>515</v>
@@ -8423,7 +8423,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>416070.8639999977</v>
+        <v>291599.7599999974</v>
       </c>
       <c r="B250" t="n">
         <v>195</v>
@@ -8455,7 +8455,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>416126.1599999978</v>
+        <v>291899.7599999974</v>
       </c>
       <c r="B251" t="n">
         <v>515</v>
@@ -8487,7 +8487,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>418427.9999999979</v>
+        <v>294201.5999999975</v>
       </c>
       <c r="B252" t="n">
         <v>195</v>
@@ -8519,7 +8519,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>419103.0719999978</v>
+        <v>294876.6719999973</v>
       </c>
       <c r="B253" t="n">
         <v>515</v>
@@ -8551,7 +8551,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>421757.5679999979</v>
+        <v>297531.1679999974</v>
       </c>
       <c r="B254" t="n">
         <v>195</v>
@@ -8583,7 +8583,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>422991.5039999979</v>
+        <v>298765.1039999974</v>
       </c>
       <c r="B255" t="n">
         <v>515</v>
@@ -8615,7 +8615,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>427773.3119999978</v>
+        <v>302365.1039999974</v>
       </c>
       <c r="B256" t="n">
         <v>197.5</v>
@@ -8647,7 +8647,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>427944.3839999977</v>
+        <v>302665.1039999974</v>
       </c>
       <c r="B257" t="n">
         <v>515</v>
@@ -8679,7 +8679,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>427960.3679999977</v>
+        <v>302965.1039999974</v>
       </c>
       <c r="B258" t="n">
         <v>200</v>
@@ -8711,7 +8711,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>430216.4159999979</v>
+        <v>305221.1519999976</v>
       </c>
       <c r="B259" t="n">
         <v>515</v>
@@ -8743,7 +8743,7 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>430233.6959999979</v>
+        <v>305521.1519999976</v>
       </c>
       <c r="B260" t="n">
         <v>202.5</v>
@@ -8775,7 +8775,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>430553.3759999978</v>
+        <v>305840.8319999974</v>
       </c>
       <c r="B261" t="n">
         <v>205</v>
@@ -8807,7 +8807,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>430713.7919999978</v>
+        <v>306140.8319999974</v>
       </c>
       <c r="B262" t="n">
         <v>515</v>
@@ -8839,7 +8839,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>430723.2959999978</v>
+        <v>306440.8319999974</v>
       </c>
       <c r="B263" t="n">
         <v>205</v>
@@ -8871,7 +8871,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>430778.7359999977</v>
+        <v>306740.8319999974</v>
       </c>
       <c r="B264" t="n">
         <v>515</v>
@@ -8903,7 +8903,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>430796.0159999977</v>
+        <v>307040.8319999974</v>
       </c>
       <c r="B265" t="n">
         <v>210</v>
@@ -8935,7 +8935,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>433825.6319999976</v>
+        <v>310070.4479999973</v>
       </c>
       <c r="B266" t="n">
         <v>212.5</v>
@@ -8967,7 +8967,7 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>435770.0639999976</v>
+        <v>312014.8799999973</v>
       </c>
       <c r="B267" t="n">
         <v>515</v>
@@ -8999,7 +8999,7 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>436166.0639999976</v>
+        <v>312410.8799999973</v>
       </c>
       <c r="B268" t="n">
         <v>215</v>
@@ -9031,7 +9031,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>436940.0639999976</v>
+        <v>313184.8799999973</v>
       </c>
       <c r="B269" t="n">
         <v>515</v>
@@ -9063,7 +9063,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>438351.6959999976</v>
+        <v>314596.5119999973</v>
       </c>
       <c r="B270" t="n">
         <v>215</v>
@@ -9095,7 +9095,7 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>439762.7519999977</v>
+        <v>316007.5679999974</v>
       </c>
       <c r="B271" t="n">
         <v>217.5</v>
@@ -9127,7 +9127,7 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>444952.0799999977</v>
+        <v>319607.5679999974</v>
       </c>
       <c r="B272" t="n">
         <v>515</v>
@@ -9159,7 +9159,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>447224.5439999976</v>
+        <v>321880.0319999973</v>
       </c>
       <c r="B273" t="n">
         <v>217.5</v>
@@ -9191,7 +9191,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>457704.5759999977</v>
+        <v>325480.0319999973</v>
       </c>
       <c r="B274" t="n">
         <v>512.5</v>
@@ -9223,7 +9223,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>458178.6239999977</v>
+        <v>325954.0799999972</v>
       </c>
       <c r="B275" t="n">
         <v>222.5</v>
@@ -9255,7 +9255,7 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>461419.3439999977</v>
+        <v>329194.7999999973</v>
       </c>
       <c r="B276" t="n">
         <v>512.5</v>
@@ -9287,7 +9287,7 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>462635.4239999977</v>
+        <v>330410.8799999973</v>
       </c>
       <c r="B277" t="n">
         <v>225</v>
@@ -9319,7 +9319,7 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>463028.3999999978</v>
+        <v>330803.8559999973</v>
       </c>
       <c r="B278" t="n">
         <v>512.5</v>
@@ -9351,7 +9351,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>464492.3039999976</v>
+        <v>332267.7599999972</v>
       </c>
       <c r="B279" t="n">
         <v>227.5</v>
@@ -9383,7 +9383,7 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>475533.2159999976</v>
+        <v>335867.7599999972</v>
       </c>
       <c r="B280" t="n">
         <v>512.5</v>
@@ -9415,7 +9415,7 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>477346.3199999977</v>
+        <v>337680.8639999973</v>
       </c>
       <c r="B281" t="n">
         <v>230</v>
@@ -9447,7 +9447,7 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>482823.7919999977</v>
+        <v>341280.8639999973</v>
       </c>
       <c r="B282" t="n">
         <v>512.5</v>
@@ -9479,7 +9479,7 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>487502.9279999977</v>
+        <v>344880.8639999973</v>
       </c>
       <c r="B283" t="n">
         <v>230</v>
@@ -9511,7 +9511,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>487607.3279999976</v>
+        <v>345180.8639999972</v>
       </c>
       <c r="B284" t="n">
         <v>512.5</v>
@@ -9543,7 +9543,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>488710.3679999976</v>
+        <v>346283.9039999972</v>
       </c>
       <c r="B285" t="n">
         <v>230</v>
@@ -9575,7 +9575,7 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>494625.1679999976</v>
+        <v>349883.9039999972</v>
       </c>
       <c r="B286" t="n">
         <v>512.5</v>
@@ -9607,7 +9607,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>494647.7759999976</v>
+        <v>350183.9039999972</v>
       </c>
       <c r="B287" t="n">
         <v>230</v>
@@ -9639,7 +9639,7 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>495111.1679999975</v>
+        <v>350647.2959999972</v>
       </c>
       <c r="B288" t="n">
         <v>512.5</v>
@@ -9671,7 +9671,7 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>495464.9759999975</v>
+        <v>351001.1039999972</v>
       </c>
       <c r="B289" t="n">
         <v>230</v>
@@ -9703,7 +9703,7 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>498778.5599999976</v>
+        <v>354314.6879999973</v>
       </c>
       <c r="B290" t="n">
         <v>230</v>
@@ -9735,7 +9735,7 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>499100.9759999975</v>
+        <v>354637.1039999973</v>
       </c>
       <c r="B291" t="n">
         <v>510</v>
@@ -9767,7 +9767,7 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>510464.0159999975</v>
+        <v>358237.1039999973</v>
       </c>
       <c r="B292" t="n">
         <v>232.5</v>
@@ -9799,7 +9799,7 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>517045.3919999974</v>
+        <v>361837.1039999973</v>
       </c>
       <c r="B293" t="n">
         <v>232.5</v>
@@ -9831,7 +9831,7 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>527714.6399999976</v>
+        <v>365437.1039999973</v>
       </c>
       <c r="B294" t="n">
         <v>235</v>
@@ -9863,7 +9863,7 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>527921.8559999976</v>
+        <v>365737.1039999972</v>
       </c>
       <c r="B295" t="n">
         <v>510</v>
@@ -9895,7 +9895,7 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>528583.9679999972</v>
+        <v>366399.215999997</v>
       </c>
       <c r="B296" t="n">
         <v>235</v>
@@ -9927,7 +9927,7 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>528873.5519999975</v>
+        <v>366699.2159999969</v>
       </c>
       <c r="B297" t="n">
         <v>510</v>
@@ -9959,7 +9959,7 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>536008.3199999972</v>
+        <v>370299.2159999969</v>
       </c>
       <c r="B298" t="n">
         <v>237.5</v>
@@ -9991,7 +9991,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>536294.5919999974</v>
+        <v>370599.2159999969</v>
       </c>
       <c r="B299" t="n">
         <v>510</v>
@@ -10023,7 +10023,7 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>538413.1199999973</v>
+        <v>372717.7439999969</v>
       </c>
       <c r="B300" t="n">
         <v>237.5</v>
@@ -10055,7 +10055,7 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>540559.2959999973</v>
+        <v>374863.9199999968</v>
       </c>
       <c r="B301" t="n">
         <v>510</v>
@@ -10087,7 +10087,7 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>541312.8479999976</v>
+        <v>375617.4719999969</v>
       </c>
       <c r="B302" t="n">
         <v>237.5</v>
@@ -10119,7 +10119,7 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>541733.1839999972</v>
+        <v>376037.8079999966</v>
       </c>
       <c r="B303" t="n">
         <v>510</v>
@@ -10151,7 +10151,7 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>547124.5439999975</v>
+        <v>379637.8079999966</v>
       </c>
       <c r="B304" t="n">
         <v>237.5</v>
@@ -10183,7 +10183,7 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>551273.6159999972</v>
+        <v>383237.8079999966</v>
       </c>
       <c r="B305" t="n">
         <v>510</v>
@@ -10215,7 +10215,7 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>559835.4239999974</v>
+        <v>386837.8079999966</v>
       </c>
       <c r="B306" t="n">
         <v>240</v>
@@ -10247,7 +10247,7 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>563272.1279999973</v>
+        <v>390274.5119999965</v>
       </c>
       <c r="B307" t="n">
         <v>242.5</v>
@@ -10279,7 +10279,7 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>563849.7119999971</v>
+        <v>390852.0959999962</v>
       </c>
       <c r="B308" t="n">
         <v>510</v>
@@ -10311,7 +10311,7 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>569416.6079999973</v>
+        <v>394452.0959999962</v>
       </c>
       <c r="B309" t="n">
         <v>245</v>
@@ -10343,7 +10343,7 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>571012.9919999974</v>
+        <v>396048.4799999963</v>
       </c>
       <c r="B310" t="n">
         <v>510</v>
@@ -10375,7 +10375,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>572195.9519999974</v>
+        <v>397231.4399999963</v>
       </c>
       <c r="B311" t="n">
         <v>247.5</v>
@@ -10407,7 +10407,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>574314.1919999976</v>
+        <v>399349.6799999966</v>
       </c>
       <c r="B312" t="n">
         <v>247.5</v>
@@ -10439,7 +10439,7 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>574662.9599999973</v>
+        <v>399698.4479999962</v>
       </c>
       <c r="B313" t="n">
         <v>510</v>
@@ -10471,7 +10471,7 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>576085.2479999973</v>
+        <v>401120.7359999964</v>
       </c>
       <c r="B314" t="n">
         <v>247.5</v>
@@ -10503,7 +10503,7 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>576192.8159999973</v>
+        <v>401420.7359999964</v>
       </c>
       <c r="B315" t="n">
         <v>510</v>
@@ -10535,7 +10535,7 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>577991.231999997</v>
+        <v>403219.1519999962</v>
       </c>
       <c r="B316" t="n">
         <v>247.5</v>
@@ -10567,7 +10567,7 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>578147.759999997</v>
+        <v>403519.1519999962</v>
       </c>
       <c r="B317" t="n">
         <v>507.5</v>
@@ -10599,7 +10599,7 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>581265.503999997</v>
+        <v>406636.8959999961</v>
       </c>
       <c r="B318" t="n">
         <v>247.5</v>
@@ -10631,7 +10631,7 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>581317.6319999971</v>
+        <v>406936.895999996</v>
       </c>
       <c r="B319" t="n">
         <v>507.5</v>
@@ -10663,7 +10663,7 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>581333.3279999971</v>
+        <v>407236.895999996</v>
       </c>
       <c r="B320" t="n">
         <v>250</v>
@@ -10695,7 +10695,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>581361.4079999971</v>
+        <v>407536.895999996</v>
       </c>
       <c r="B321" t="n">
         <v>507.5</v>
@@ -10727,7 +10727,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>591851.9519999969</v>
+        <v>411136.895999996</v>
       </c>
       <c r="B322" t="n">
         <v>250</v>
@@ -10759,7 +10759,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>593937.5039999972</v>
+        <v>413222.4479999962</v>
       </c>
       <c r="B323" t="n">
         <v>507.5</v>
@@ -10791,7 +10791,7 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>600771.3119999969</v>
+        <v>416822.4479999962</v>
       </c>
       <c r="B324" t="n">
         <v>250</v>
@@ -10823,7 +10823,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>602058.6719999972</v>
+        <v>418109.8079999965</v>
       </c>
       <c r="B325" t="n">
         <v>507.5</v>
@@ -10855,7 +10855,7 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>603618.7679999971</v>
+        <v>419669.9039999964</v>
       </c>
       <c r="B326" t="n">
         <v>250</v>
@@ -10887,7 +10887,7 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>604957.6799999971</v>
+        <v>421008.8159999964</v>
       </c>
       <c r="B327" t="n">
         <v>507.5</v>
@@ -10919,7 +10919,7 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>614360.8799999969</v>
+        <v>424608.8159999964</v>
       </c>
       <c r="B328" t="n">
         <v>252.5</v>
@@ -10951,7 +10951,7 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>615088.6559999969</v>
+        <v>425336.5919999965</v>
       </c>
       <c r="B329" t="n">
         <v>252.5</v>
@@ -10983,7 +10983,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>616233.0239999967</v>
+        <v>426480.9599999963</v>
       </c>
       <c r="B330" t="n">
         <v>505</v>
@@ -11015,7 +11015,7 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>629553.0239999967</v>
+        <v>430080.9599999963</v>
       </c>
       <c r="B331" t="n">
         <v>252.5</v>
@@ -11047,7 +11047,7 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>629580.6719999968</v>
+        <v>430380.9599999963</v>
       </c>
       <c r="B332" t="n">
         <v>505</v>
@@ -11079,7 +11079,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>639192.3839999966</v>
+        <v>433980.9599999963</v>
       </c>
       <c r="B333" t="n">
         <v>255</v>
@@ -11111,7 +11111,7 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>652279.5359999968</v>
+        <v>437580.9599999963</v>
       </c>
       <c r="B334" t="n">
         <v>255</v>
@@ -11143,7 +11143,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>665412.0479999969</v>
+        <v>441180.9599999963</v>
       </c>
       <c r="B335" t="n">
         <v>505</v>
@@ -11175,7 +11175,7 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>666661.8239999965</v>
+        <v>442430.7359999959</v>
       </c>
       <c r="B336" t="n">
         <v>255</v>
@@ -11207,7 +11207,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>667769.3279999963</v>
+        <v>443538.2399999956</v>
       </c>
       <c r="B337" t="n">
         <v>255</v>
@@ -11239,7 +11239,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>669506.3999999965</v>
+        <v>445275.3119999958</v>
       </c>
       <c r="B338" t="n">
         <v>505</v>
@@ -11271,7 +11271,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>669518.0639999968</v>
+        <v>445575.3119999958</v>
       </c>
       <c r="B339" t="n">
         <v>505</v>
@@ -11303,7 +11303,7 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>677733.2639999969</v>
+        <v>449175.3119999958</v>
       </c>
       <c r="B340" t="n">
         <v>505</v>
@@ -11335,7 +11335,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>684725.3279999972</v>
+        <v>452775.3119999958</v>
       </c>
       <c r="B341" t="n">
         <v>260</v>
@@ -11367,7 +11367,7 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>685240.4159999972</v>
+        <v>453290.3999999958</v>
       </c>
       <c r="B342" t="n">
         <v>505</v>
@@ -11399,7 +11399,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>690500.8799999972</v>
+        <v>456890.3999999958</v>
       </c>
       <c r="B343" t="n">
         <v>502.5</v>
@@ -11431,7 +11431,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>691989.6959999973</v>
+        <v>458379.2159999959</v>
       </c>
       <c r="B344" t="n">
         <v>502.5</v>
@@ -11463,7 +11463,7 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>695274.0479999973</v>
+        <v>461663.5679999958</v>
       </c>
       <c r="B345" t="n">
         <v>262.5</v>
@@ -11495,7 +11495,7 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>695274.3359999974</v>
+        <v>461963.5679999958</v>
       </c>
       <c r="B346" t="n">
         <v>502.5</v>
@@ -11527,7 +11527,7 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>706899.8879999976</v>
+        <v>465563.5679999958</v>
       </c>
       <c r="B347" t="n">
         <v>262.5</v>
@@ -11559,7 +11559,7 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>709934.6879999974</v>
+        <v>468598.3679999957</v>
       </c>
       <c r="B348" t="n">
         <v>262.5</v>
@@ -11591,7 +11591,7 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>711342.7199999975</v>
+        <v>470006.3999999958</v>
       </c>
       <c r="B349" t="n">
         <v>502.5</v>
@@ -11623,7 +11623,7 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>711356.9759999976</v>
+        <v>470306.3999999958</v>
       </c>
       <c r="B350" t="n">
         <v>502.5</v>
@@ -11655,7 +11655,7 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>711542.3039999973</v>
+        <v>470606.3999999959</v>
       </c>
       <c r="B351" t="n">
         <v>502.5</v>
@@ -11687,7 +11687,7 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>711544.7519999972</v>
+        <v>470906.3999999959</v>
       </c>
       <c r="B352" t="n">
         <v>502.5</v>
@@ -11719,7 +11719,7 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>711867.7439999974</v>
+        <v>471229.391999996</v>
       </c>
       <c r="B353" t="n">
         <v>500</v>
@@ -11751,7 +11751,7 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>712518.1919999976</v>
+        <v>471879.8399999963</v>
       </c>
       <c r="B354" t="n">
         <v>265</v>
@@ -11783,7 +11783,7 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>713480.9759999976</v>
+        <v>472842.6239999963</v>
       </c>
       <c r="B355" t="n">
         <v>500</v>
@@ -11815,7 +11815,7 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>717725.2319999972</v>
+        <v>476442.6239999963</v>
       </c>
       <c r="B356" t="n">
         <v>265</v>
@@ -11847,7 +11847,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>718666.5599999969</v>
+        <v>477383.951999996</v>
       </c>
       <c r="B357" t="n">
         <v>500</v>
@@ -11879,7 +11879,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>730265.4719999969</v>
+        <v>480983.951999996</v>
       </c>
       <c r="B358" t="n">
         <v>265</v>
@@ -11911,7 +11911,7 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>734529.5999999964</v>
+        <v>484583.951999996</v>
       </c>
       <c r="B359" t="n">
         <v>265</v>
@@ -11943,7 +11943,7 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>735878.0159999967</v>
+        <v>485932.3679999962</v>
       </c>
       <c r="B360" t="n">
         <v>267.5</v>
@@ -11975,7 +11975,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>738312.7679999961</v>
+        <v>488367.1199999956</v>
       </c>
       <c r="B361" t="n">
         <v>500</v>
@@ -12007,7 +12007,7 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>741779.8559999956</v>
+        <v>491834.2079999952</v>
       </c>
       <c r="B362" t="n">
         <v>500</v>
@@ -12039,7 +12039,7 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>743002.2719999958</v>
+        <v>493056.6239999954</v>
       </c>
       <c r="B363" t="n">
         <v>267.5</v>
@@ -12071,7 +12071,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>743459.3279999957</v>
+        <v>493513.6799999953</v>
       </c>
       <c r="B364" t="n">
         <v>500</v>
@@ -12103,7 +12103,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>748182.2399999961</v>
+        <v>497113.6799999953</v>
       </c>
       <c r="B365" t="n">
         <v>267.5</v>
@@ -12135,7 +12135,7 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>749222.4959999953</v>
+        <v>498153.9359999943</v>
       </c>
       <c r="B366" t="n">
         <v>500</v>
@@ -12167,7 +12167,7 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>756804.2399999961</v>
+        <v>501753.9359999943</v>
       </c>
       <c r="B367" t="n">
         <v>267.5</v>
@@ -12199,7 +12199,7 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>756805.9679999953</v>
+        <v>502053.9359999944</v>
       </c>
       <c r="B368" t="n">
         <v>500</v>
@@ -12231,7 +12231,7 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>757083.3119999958</v>
+        <v>502353.9359999944</v>
       </c>
       <c r="B369" t="n">
         <v>500</v>
@@ -12263,7 +12263,7 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>757496.7359999955</v>
+        <v>502767.359999994</v>
       </c>
       <c r="B370" t="n">
         <v>270</v>
@@ -12295,7 +12295,7 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>759764.8799999958</v>
+        <v>505035.5039999944</v>
       </c>
       <c r="B371" t="n">
         <v>500</v>
@@ -12327,7 +12327,7 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>760734.2879999966</v>
+        <v>506004.9119999952</v>
       </c>
       <c r="B372" t="n">
         <v>500</v>
@@ -12359,7 +12359,7 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>761826.8159999965</v>
+        <v>507097.4399999951</v>
       </c>
       <c r="B373" t="n">
         <v>497.5</v>
@@ -12391,7 +12391,7 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>767092.3199999963</v>
+        <v>510697.4399999951</v>
       </c>
       <c r="B374" t="n">
         <v>270</v>
@@ -12423,7 +12423,7 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>767118.3839999966</v>
+        <v>510997.4399999951</v>
       </c>
       <c r="B375" t="n">
         <v>270</v>
@@ -12455,7 +12455,7 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>771456.5279999969</v>
+        <v>514597.4399999951</v>
       </c>
       <c r="B376" t="n">
         <v>497.5</v>
@@ -12487,7 +12487,7 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>774558.4319999961</v>
+        <v>517699.3439999943</v>
       </c>
       <c r="B377" t="n">
         <v>497.5</v>
@@ -12519,7 +12519,7 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>774589.2479999966</v>
+        <v>517999.3439999943</v>
       </c>
       <c r="B378" t="n">
         <v>270</v>
@@ -12551,7 +12551,7 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>779021.4239999966</v>
+        <v>521599.3439999943</v>
       </c>
       <c r="B379" t="n">
         <v>497.5</v>
@@ -12583,7 +12583,7 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>783596.3039999965</v>
+        <v>525199.3439999943</v>
       </c>
       <c r="B380" t="n">
         <v>497.5</v>
@@ -12615,7 +12615,7 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>783606.5279999969</v>
+        <v>525499.3439999943</v>
       </c>
       <c r="B381" t="n">
         <v>272.5</v>
@@ -12647,7 +12647,7 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>786089.0879999965</v>
+        <v>527981.9039999939</v>
       </c>
       <c r="B382" t="n">
         <v>497.5</v>
@@ -12679,7 +12679,7 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>793822.8959999967</v>
+        <v>531581.9039999939</v>
       </c>
       <c r="B383" t="n">
         <v>272.5</v>
@@ -12711,7 +12711,7 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>800661.4559999963</v>
+        <v>535181.9039999939</v>
       </c>
       <c r="B384" t="n">
         <v>497.5</v>
@@ -12743,7 +12743,7 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>803304.8639999961</v>
+        <v>537825.3119999939</v>
       </c>
       <c r="B385" t="n">
         <v>275</v>
@@ -12775,7 +12775,7 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>810464.6879999961</v>
+        <v>541425.3119999939</v>
       </c>
       <c r="B386" t="n">
         <v>495</v>
@@ -12807,7 +12807,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>813136.7519999964</v>
+        <v>544097.3759999941</v>
       </c>
       <c r="B387" t="n">
         <v>277.5</v>
@@ -12839,7 +12839,7 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>815221.4399999966</v>
+        <v>546182.0639999942</v>
       </c>
       <c r="B388" t="n">
         <v>280</v>
@@ -12871,7 +12871,7 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>822888.2879999968</v>
+        <v>549782.0639999942</v>
       </c>
       <c r="B389" t="n">
         <v>495</v>
@@ -12903,7 +12903,7 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>823395.8879999964</v>
+        <v>550289.6639999938</v>
       </c>
       <c r="B390" t="n">
         <v>282.5</v>
@@ -12935,7 +12935,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>828763.1999999963</v>
+        <v>553889.6639999938</v>
       </c>
       <c r="B391" t="n">
         <v>492.5</v>
@@ -12967,7 +12967,7 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>836905.2479999969</v>
+        <v>557489.6639999938</v>
       </c>
       <c r="B392" t="n">
         <v>282.5</v>
@@ -12999,7 +12999,7 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>844566.623999996</v>
+        <v>561089.6639999938</v>
       </c>
       <c r="B393" t="n">
         <v>282.5</v>
@@ -13031,7 +13031,7 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>847836.5759999966</v>
+        <v>564359.6159999943</v>
       </c>
       <c r="B394" t="n">
         <v>492.5</v>
@@ -13063,7 +13063,7 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>849790.0799999962</v>
+        <v>566313.1199999941</v>
       </c>
       <c r="B395" t="n">
         <v>492.5</v>
@@ -13095,7 +13095,7 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>849925.1519999969</v>
+        <v>566613.1199999941</v>
       </c>
       <c r="B396" t="n">
         <v>285</v>
@@ -13127,7 +13127,7 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>852904.2239999966</v>
+        <v>569592.1919999938</v>
       </c>
       <c r="B397" t="n">
         <v>492.5</v>
@@ -13159,7 +13159,7 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>856923.2639999966</v>
+        <v>573192.1919999938</v>
       </c>
       <c r="B398" t="n">
         <v>492.5</v>
@@ -13191,7 +13191,7 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>858975.9839999962</v>
+        <v>575244.9119999935</v>
       </c>
       <c r="B399" t="n">
         <v>492.5</v>
@@ -13223,7 +13223,7 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>863336.1599999963</v>
+        <v>578844.9119999935</v>
       </c>
       <c r="B400" t="n">
         <v>290</v>
@@ -13255,7 +13255,7 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>863799.1199999962</v>
+        <v>579307.8719999933</v>
       </c>
       <c r="B401" t="n">
         <v>492.5</v>
@@ -13287,7 +13287,7 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>863854.9919999966</v>
+        <v>579607.8719999935</v>
       </c>
       <c r="B402" t="n">
         <v>492.5</v>
@@ -13319,7 +13319,7 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>864766.0799999961</v>
+        <v>580518.959999993</v>
       </c>
       <c r="B403" t="n">
         <v>290</v>
@@ -13351,7 +13351,7 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>871466.8319999964</v>
+        <v>584118.959999993</v>
       </c>
       <c r="B404" t="n">
         <v>492.5</v>
@@ -13383,7 +13383,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>872538.1919999969</v>
+        <v>585190.3199999933</v>
       </c>
       <c r="B405" t="n">
         <v>492.5</v>
@@ -13415,7 +13415,7 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>883918.5119999972</v>
+        <v>588790.3199999933</v>
       </c>
       <c r="B406" t="n">
         <v>490</v>
@@ -13447,7 +13447,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>884936.7359999976</v>
+        <v>589808.5439999937</v>
       </c>
       <c r="B407" t="n">
         <v>290</v>
@@ -13479,7 +13479,7 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>888317.9999999971</v>
+        <v>593189.8079999932</v>
       </c>
       <c r="B408" t="n">
         <v>490</v>
@@ -13511,7 +13511,7 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>892514.4479999969</v>
+        <v>596789.8079999932</v>
       </c>
       <c r="B409" t="n">
         <v>490</v>
@@ -13543,7 +13543,7 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>895107.311999997</v>
+        <v>599382.6719999933</v>
       </c>
       <c r="B410" t="n">
         <v>292.5</v>
@@ -13575,7 +13575,7 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>897824.5919999963</v>
+        <v>602099.9519999926</v>
       </c>
       <c r="B411" t="n">
         <v>292.5</v>
@@ -13607,7 +13607,7 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>898253.7119999964</v>
+        <v>602529.0719999928</v>
       </c>
       <c r="B412" t="n">
         <v>490</v>
@@ -13639,7 +13639,7 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>911837.6639999971</v>
+        <v>606129.0719999928</v>
       </c>
       <c r="B413" t="n">
         <v>490</v>
@@ -13671,7 +13671,7 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>911901.5999999976</v>
+        <v>606429.0719999928</v>
       </c>
       <c r="B414" t="n">
         <v>292.5</v>
@@ -13703,7 +13703,7 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>912287.8079999973</v>
+        <v>606815.2799999925</v>
       </c>
       <c r="B415" t="n">
         <v>490</v>
@@ -13735,7 +13735,7 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>912566.879999997</v>
+        <v>607115.2799999925</v>
       </c>
       <c r="B416" t="n">
         <v>292.5</v>
@@ -13767,7 +13767,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>914690.879999997</v>
+        <v>609239.2799999925</v>
       </c>
       <c r="B417" t="n">
         <v>490</v>
@@ -13799,7 +13799,7 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>917446.7519999965</v>
+        <v>611995.151999992</v>
       </c>
       <c r="B418" t="n">
         <v>295</v>
@@ -13831,7 +13831,7 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>921137.1839999965</v>
+        <v>615595.151999992</v>
       </c>
       <c r="B419" t="n">
         <v>490</v>
@@ -13863,7 +13863,7 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>921317.1839999966</v>
+        <v>615895.151999992</v>
       </c>
       <c r="B420" t="n">
         <v>295</v>
@@ -13895,7 +13895,7 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>923757.9839999974</v>
+        <v>618335.9519999927</v>
       </c>
       <c r="B421" t="n">
         <v>490</v>
@@ -13927,7 +13927,7 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>930988.6559999967</v>
+        <v>621935.9519999927</v>
       </c>
       <c r="B422" t="n">
         <v>295</v>
@@ -13959,7 +13959,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>931238.0639999964</v>
+        <v>622235.9519999927</v>
       </c>
       <c r="B423" t="n">
         <v>487.5</v>
@@ -13991,7 +13991,7 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>931279.1039999966</v>
+        <v>622535.9519999928</v>
       </c>
       <c r="B424" t="n">
         <v>297.5</v>
@@ -14023,7 +14023,7 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>932192.0639999966</v>
+        <v>623448.9119999927</v>
       </c>
       <c r="B425" t="n">
         <v>297.5</v>
@@ -14055,7 +14055,7 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>934641.6479999963</v>
+        <v>625898.4959999925</v>
       </c>
       <c r="B426" t="n">
         <v>487.5</v>
@@ -14087,7 +14087,7 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>934708.0319999959</v>
+        <v>626198.4959999926</v>
       </c>
       <c r="B427" t="n">
         <v>297.5</v>
@@ -14119,7 +14119,7 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>935711.1359999961</v>
+        <v>627201.5999999929</v>
       </c>
       <c r="B428" t="n">
         <v>487.5</v>
@@ -14151,7 +14151,7 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>936675.3599999956</v>
+        <v>628165.8239999923</v>
       </c>
       <c r="B429" t="n">
         <v>300</v>
@@ -14183,7 +14183,7 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>944279.1359999953</v>
+        <v>631765.8239999923</v>
       </c>
       <c r="B430" t="n">
         <v>300</v>
@@ -14215,7 +14215,7 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>944802.4319999954</v>
+        <v>632289.1199999924</v>
       </c>
       <c r="B431" t="n">
         <v>485</v>
@@ -14247,7 +14247,7 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>945343.871999995</v>
+        <v>632830.5599999919</v>
       </c>
       <c r="B432" t="n">
         <v>300</v>
@@ -14279,7 +14279,7 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>957900.0959999954</v>
+        <v>636430.5599999919</v>
       </c>
       <c r="B433" t="n">
         <v>485</v>
@@ -14311,7 +14311,7 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>965558.1600000049</v>
+        <v>640030.5599999919</v>
       </c>
       <c r="B434" t="n">
         <v>482.5</v>
@@ -14343,7 +14343,7 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>977106.3840000052</v>
+        <v>643630.5599999919</v>
       </c>
       <c r="B435" t="n">
         <v>302.5</v>
@@ -14375,7 +14375,7 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>977217.264000005</v>
+        <v>643930.5599999919</v>
       </c>
       <c r="B436" t="n">
         <v>302.5</v>
@@ -14407,7 +14407,7 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>985250.4480000053</v>
+        <v>647530.5599999919</v>
       </c>
       <c r="B437" t="n">
         <v>482.5</v>
@@ -14439,7 +14439,7 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>985700.736000005</v>
+        <v>647980.8479999916</v>
       </c>
       <c r="B438" t="n">
         <v>302.5</v>
@@ -14471,7 +14471,7 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>987429.4560000047</v>
+        <v>649709.5679999914</v>
       </c>
       <c r="B439" t="n">
         <v>482.5</v>
@@ -14503,7 +14503,7 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>990294.0480000142</v>
+        <v>652574.1600000008</v>
       </c>
       <c r="B440" t="n">
         <v>482.5</v>
@@ -14535,7 +14535,7 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>990584.9280000047</v>
+        <v>652874.1600000008</v>
       </c>
       <c r="B441" t="n">
         <v>302.5</v>
@@ -14567,7 +14567,7 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>990655.776000005</v>
+        <v>653174.1600000008</v>
       </c>
       <c r="B442" t="n">
         <v>302.5</v>
@@ -14599,7 +14599,7 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>991597.8240000146</v>
+        <v>654116.2080000107</v>
       </c>
       <c r="B443" t="n">
         <v>480</v>
@@ -14631,7 +14631,7 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>999715.6800000049</v>
+        <v>657716.2080000107</v>
       </c>
       <c r="B444" t="n">
         <v>480</v>
@@ -14663,7 +14663,7 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>1008432.288000005</v>
+        <v>661316.2080000107</v>
       </c>
       <c r="B445" t="n">
         <v>302.5</v>
@@ -14695,7 +14695,7 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>1009054.800000005</v>
+        <v>661938.7200000108</v>
       </c>
       <c r="B446" t="n">
         <v>302.5</v>
@@ -14727,7 +14727,7 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>1009911.024000015</v>
+        <v>662794.9440000205</v>
       </c>
       <c r="B447" t="n">
         <v>480</v>
@@ -14759,7 +14759,7 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>1010468.880000015</v>
+        <v>663352.8000000211</v>
       </c>
       <c r="B448" t="n">
         <v>305</v>
@@ -14791,7 +14791,7 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>1012285.728000016</v>
+        <v>665169.6480000213</v>
       </c>
       <c r="B449" t="n">
         <v>305</v>
@@ -14823,7 +14823,7 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>1014802.272000015</v>
+        <v>667686.1920000211</v>
       </c>
       <c r="B450" t="n">
         <v>480</v>
@@ -14855,7 +14855,7 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>1015119.360000016</v>
+        <v>668003.2800000216</v>
       </c>
       <c r="B451" t="n">
         <v>307.5</v>
@@ -14887,7 +14887,7 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>1017682.128000016</v>
+        <v>670566.0480000217</v>
       </c>
       <c r="B452" t="n">
         <v>480</v>
@@ -14919,7 +14919,7 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>1017994.896000025</v>
+        <v>670878.8160000312</v>
       </c>
       <c r="B453" t="n">
         <v>307.5</v>
@@ -14951,7 +14951,7 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>1018092.960000026</v>
+        <v>671178.8160000312</v>
       </c>
       <c r="B454" t="n">
         <v>480</v>
@@ -14983,7 +14983,7 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>1018320.624000025</v>
+        <v>671478.8160000312</v>
       </c>
       <c r="B455" t="n">
         <v>307.5</v>
@@ -15015,7 +15015,7 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>1024143.408000025</v>
+        <v>675078.8160000312</v>
       </c>
       <c r="B456" t="n">
         <v>480</v>
@@ -15047,7 +15047,7 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>1024154.496000025</v>
+        <v>675378.8160000313</v>
       </c>
       <c r="B457" t="n">
         <v>307.5</v>
@@ -15079,7 +15079,7 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>1026343.440000025</v>
+        <v>677567.7600000314</v>
       </c>
       <c r="B458" t="n">
         <v>307.5</v>
@@ -15111,7 +15111,7 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>1029412.944000025</v>
+        <v>680637.2640000312</v>
       </c>
       <c r="B459" t="n">
         <v>477.5</v>
@@ -15143,7 +15143,7 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>1030797.792000025</v>
+        <v>682022.1120000314</v>
       </c>
       <c r="B460" t="n">
         <v>310</v>
@@ -15175,7 +15175,7 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>1033084.944000025</v>
+        <v>684309.264000031</v>
       </c>
       <c r="B461" t="n">
         <v>477.5</v>
@@ -15207,7 +15207,7 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>1033878.672000025</v>
+        <v>685102.9920000312</v>
       </c>
       <c r="B462" t="n">
         <v>310</v>
@@ -15239,7 +15239,7 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>1046755.440000034</v>
+        <v>688702.9920000312</v>
       </c>
       <c r="B463" t="n">
         <v>312.5</v>
@@ -15271,7 +15271,7 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>1049064.768000025</v>
+        <v>691012.3200000216</v>
       </c>
       <c r="B464" t="n">
         <v>477.5</v>
@@ -15303,7 +15303,7 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>1050560.496000034</v>
+        <v>692508.048000031</v>
       </c>
       <c r="B465" t="n">
         <v>312.5</v>
@@ -15335,7 +15335,7 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>1052109.648000024</v>
+        <v>694057.2000000215</v>
       </c>
       <c r="B466" t="n">
         <v>475</v>
@@ -15367,7 +15367,7 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>1054169.856000025</v>
+        <v>696117.4080000221</v>
       </c>
       <c r="B467" t="n">
         <v>317.5</v>
@@ -15399,7 +15399,7 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>1057087.584000025</v>
+        <v>699035.1360000222</v>
       </c>
       <c r="B468" t="n">
         <v>475</v>
@@ -15431,7 +15431,7 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>1064463.696000025</v>
+        <v>702635.1360000222</v>
       </c>
       <c r="B469" t="n">
         <v>317.5</v>
@@ -15463,7 +15463,7 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>1069668.144000026</v>
+        <v>706235.1360000222</v>
       </c>
       <c r="B470" t="n">
         <v>475</v>
@@ -15495,7 +15495,7 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>1071704.304000026</v>
+        <v>708271.2960000223</v>
       </c>
       <c r="B471" t="n">
         <v>320</v>
@@ -15527,7 +15527,7 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>1075595.184000036</v>
+        <v>711871.2960000223</v>
       </c>
       <c r="B472" t="n">
         <v>322.5</v>
@@ -15559,7 +15559,7 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>1084397.760000026</v>
+        <v>715471.2960000223</v>
       </c>
       <c r="B473" t="n">
         <v>470</v>
@@ -15591,7 +15591,7 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>1084992.624000026</v>
+        <v>716066.1600000224</v>
       </c>
       <c r="B474" t="n">
         <v>325</v>
@@ -15623,7 +15623,7 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>1092554.496000025</v>
+        <v>719666.1600000224</v>
       </c>
       <c r="B475" t="n">
         <v>470</v>
@@ -15655,7 +15655,7 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>1098156.960000025</v>
+        <v>723266.1600000224</v>
       </c>
       <c r="B476" t="n">
         <v>325</v>
@@ -15687,7 +15687,7 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>1100301.696000025</v>
+        <v>725410.896000022</v>
       </c>
       <c r="B477" t="n">
         <v>325</v>
@@ -15719,7 +15719,7 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>1110222.000000024</v>
+        <v>729010.896000022</v>
       </c>
       <c r="B478" t="n">
         <v>470</v>
@@ -15751,7 +15751,7 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>1110434.544000024</v>
+        <v>729310.896000022</v>
       </c>
       <c r="B479" t="n">
         <v>470</v>
@@ -15783,7 +15783,7 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>1111761.072000025</v>
+        <v>730637.4240000228</v>
       </c>
       <c r="B480" t="n">
         <v>470</v>
@@ -15815,7 +15815,7 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>1111951.440000035</v>
+        <v>730937.4240000228</v>
       </c>
       <c r="B481" t="n">
         <v>325</v>
@@ -15847,7 +15847,7 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>1116093.456000034</v>
+        <v>734537.4240000228</v>
       </c>
       <c r="B482" t="n">
         <v>470</v>
@@ -15879,7 +15879,7 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>1118362.608000034</v>
+        <v>736806.5760000235</v>
       </c>
       <c r="B483" t="n">
         <v>327.5</v>
@@ -15911,7 +15911,7 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>1118534.688000035</v>
+        <v>737106.5760000235</v>
       </c>
       <c r="B484" t="n">
         <v>330</v>
@@ -15943,7 +15943,7 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>1130088.960000034</v>
+        <v>740706.5760000235</v>
       </c>
       <c r="B485" t="n">
         <v>330</v>
@@ -15975,7 +15975,7 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>1133836.704000035</v>
+        <v>744306.5760000235</v>
       </c>
       <c r="B486" t="n">
         <v>467.5</v>
@@ -16007,7 +16007,7 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>1135618.560000036</v>
+        <v>746088.4320000241</v>
       </c>
       <c r="B487" t="n">
         <v>332.5</v>
@@ -16039,7 +16039,7 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>1141213.968000036</v>
+        <v>749688.4320000241</v>
       </c>
       <c r="B488" t="n">
         <v>467.5</v>
@@ -16071,7 +16071,7 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>1141292.880000036</v>
+        <v>749988.4320000241</v>
       </c>
       <c r="B489" t="n">
         <v>332.5</v>
@@ -16103,7 +16103,7 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>1143021.312000034</v>
+        <v>751716.8640000223</v>
       </c>
       <c r="B490" t="n">
         <v>467.5</v>
@@ -16135,7 +16135,7 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>1154486.736000035</v>
+        <v>755316.8640000223</v>
       </c>
       <c r="B491" t="n">
         <v>467.5</v>
@@ -16167,7 +16167,7 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>1154712.528000036</v>
+        <v>755616.8640000223</v>
       </c>
       <c r="B492" t="n">
         <v>332.5</v>
@@ -16199,7 +16199,7 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>1155259.296000035</v>
+        <v>756163.6320000215</v>
       </c>
       <c r="B493" t="n">
         <v>467.5</v>
@@ -16231,7 +16231,7 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>1157031.216000035</v>
+        <v>757935.5520000214</v>
       </c>
       <c r="B494" t="n">
         <v>467.5</v>
@@ -16263,7 +16263,7 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>1160778.816000037</v>
+        <v>761535.5520000214</v>
       </c>
       <c r="B495" t="n">
         <v>332.5</v>
@@ -16295,7 +16295,7 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>1161615.168000038</v>
+        <v>762371.9040000231</v>
       </c>
       <c r="B496" t="n">
         <v>335</v>
@@ -16327,7 +16327,7 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>1173656.304000039</v>
+        <v>765971.9040000231</v>
       </c>
       <c r="B497" t="n">
         <v>467.5</v>
@@ -16359,7 +16359,7 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>1173822.48000004</v>
+        <v>766271.9040000233</v>
       </c>
       <c r="B498" t="n">
         <v>335</v>
@@ -16391,7 +16391,7 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>1175476.752000041</v>
+        <v>767926.176000025</v>
       </c>
       <c r="B499" t="n">
         <v>465</v>
@@ -16423,7 +16423,7 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>1179572.400000041</v>
+        <v>771526.176000025</v>
       </c>
       <c r="B500" t="n">
         <v>337.5</v>
@@ -16455,7 +16455,7 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>1188999.648000041</v>
+        <v>775126.176000025</v>
       </c>
       <c r="B501" t="n">
         <v>465</v>
@@ -16487,7 +16487,7 @@
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>1196248.608000042</v>
+        <v>778726.176000025</v>
       </c>
       <c r="B502" t="n">
         <v>337.5</v>
@@ -16519,7 +16519,7 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>1199106.864000043</v>
+        <v>781584.432000026</v>
       </c>
       <c r="B503" t="n">
         <v>465</v>
@@ -16551,7 +16551,7 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>1200347.136000043</v>
+        <v>782824.7040000259</v>
       </c>
       <c r="B504" t="n">
         <v>337.5</v>
@@ -16583,7 +16583,7 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>1207468.080000043</v>
+        <v>786424.7040000259</v>
       </c>
       <c r="B505" t="n">
         <v>465</v>
@@ -16615,7 +16615,7 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>1209169.296000043</v>
+        <v>788125.9200000259</v>
       </c>
       <c r="B506" t="n">
         <v>462.5</v>
@@ -16647,7 +16647,7 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>1212005.808000043</v>
+        <v>790962.432000026</v>
       </c>
       <c r="B507" t="n">
         <v>337.5</v>
@@ -16679,7 +16679,7 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>1212636.096000042</v>
+        <v>791592.7200000249</v>
       </c>
       <c r="B508" t="n">
         <v>462.5</v>
@@ -16711,7 +16711,7 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>1213662.240000041</v>
+        <v>792618.8640000243</v>
       </c>
       <c r="B509" t="n">
         <v>337.5</v>
@@ -16743,7 +16743,7 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>1213662.38400004</v>
+        <v>792918.8640000243</v>
       </c>
       <c r="B510" t="n">
         <v>337.5</v>
@@ -16775,7 +16775,7 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>1214078.544000041</v>
+        <v>793335.0240000244</v>
       </c>
       <c r="B511" t="n">
         <v>340</v>
@@ -16807,7 +16807,7 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>1216731.888000041</v>
+        <v>795988.3680000249</v>
       </c>
       <c r="B512" t="n">
         <v>462.5</v>
@@ -16839,7 +16839,7 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>1217540.73600004</v>
+        <v>796797.2160000242</v>
       </c>
       <c r="B513" t="n">
         <v>462.5</v>
@@ -16871,7 +16871,7 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>1218206.592000039</v>
+        <v>797463.072000023</v>
       </c>
       <c r="B514" t="n">
         <v>340</v>
@@ -16903,7 +16903,7 @@
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>1222195.536000039</v>
+        <v>801063.072000023</v>
       </c>
       <c r="B515" t="n">
         <v>460</v>
@@ -16935,7 +16935,7 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>1223863.63200004</v>
+        <v>802731.1680000238</v>
       </c>
       <c r="B516" t="n">
         <v>340</v>
@@ -16967,7 +16967,7 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>1224149.328000039</v>
+        <v>803031.1680000238</v>
       </c>
       <c r="B517" t="n">
         <v>460</v>
@@ -16999,7 +16999,7 @@
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>1228361.184000039</v>
+        <v>806631.1680000238</v>
       </c>
       <c r="B518" t="n">
         <v>342.5</v>
@@ -17031,7 +17031,7 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>1239051.600000039</v>
+        <v>810231.1680000238</v>
       </c>
       <c r="B519" t="n">
         <v>460</v>
@@ -17063,7 +17063,7 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>1243998.144000038</v>
+        <v>813831.1680000238</v>
       </c>
       <c r="B520" t="n">
         <v>460</v>
@@ -17095,7 +17095,7 @@
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>1244942.928000038</v>
+        <v>814775.9520000238</v>
       </c>
       <c r="B521" t="n">
         <v>342.5</v>
@@ -17127,7 +17127,7 @@
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>1245682.080000037</v>
+        <v>815515.1040000226</v>
       </c>
       <c r="B522" t="n">
         <v>460</v>
@@ -17159,7 +17159,7 @@
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>1245779.280000038</v>
+        <v>815815.1040000228</v>
       </c>
       <c r="B523" t="n">
         <v>345</v>
@@ -17191,7 +17191,7 @@
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>1245943.008000036</v>
+        <v>816115.1040000228</v>
       </c>
       <c r="B524" t="n">
         <v>345</v>
@@ -17223,7 +17223,7 @@
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>1247914.224000036</v>
+        <v>818086.3200000228</v>
       </c>
       <c r="B525" t="n">
         <v>460</v>
@@ -17255,7 +17255,7 @@
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>1247925.168000037</v>
+        <v>818386.3200000228</v>
       </c>
       <c r="B526" t="n">
         <v>345</v>
@@ -17287,7 +17287,7 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>1250924.976000037</v>
+        <v>821386.1280000231</v>
       </c>
       <c r="B527" t="n">
         <v>460</v>
@@ -17319,7 +17319,7 @@
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>1251743.472000038</v>
+        <v>822204.6240000243</v>
       </c>
       <c r="B528" t="n">
         <v>347.5</v>
@@ -17351,7 +17351,7 @@
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>1259908.128000037</v>
+        <v>825804.6240000243</v>
       </c>
       <c r="B529" t="n">
         <v>350</v>
@@ -17383,7 +17383,7 @@
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>1265771.088000036</v>
+        <v>829404.6240000243</v>
       </c>
       <c r="B530" t="n">
         <v>350</v>
@@ -17415,7 +17415,7 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>1275734.736000036</v>
+        <v>833004.6240000243</v>
       </c>
       <c r="B531" t="n">
         <v>460</v>
@@ -17447,7 +17447,7 @@
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>1275987.168000036</v>
+        <v>833304.6240000243</v>
       </c>
       <c r="B532" t="n">
         <v>457.5</v>
@@ -17479,7 +17479,7 @@
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>1288994.256000036</v>
+        <v>836904.6240000243</v>
       </c>
       <c r="B533" t="n">
         <v>457.5</v>
@@ -17511,7 +17511,7 @@
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>1289115.504000037</v>
+        <v>837204.6240000243</v>
       </c>
       <c r="B534" t="n">
         <v>457.5</v>
@@ -17543,7 +17543,7 @@
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>1296189.792000036</v>
+        <v>840804.6240000243</v>
       </c>
       <c r="B535" t="n">
         <v>352.5</v>
@@ -17575,7 +17575,7 @@
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>1308021.408000037</v>
+        <v>844404.6240000243</v>
       </c>
       <c r="B536" t="n">
         <v>457.5</v>
@@ -17607,7 +17607,7 @@
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>1310600.448000037</v>
+        <v>846983.6640000254</v>
       </c>
       <c r="B537" t="n">
         <v>352.5</v>
@@ -17639,7 +17639,7 @@
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>1312679.664000035</v>
+        <v>849062.8800000235</v>
       </c>
       <c r="B538" t="n">
         <v>457.5</v>
@@ -17671,7 +17671,7 @@
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>1312951.248000036</v>
+        <v>849362.8800000235</v>
       </c>
       <c r="B539" t="n">
         <v>457.5</v>
@@ -17703,7 +17703,7 @@
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>1318365.792000036</v>
+        <v>852962.8800000235</v>
       </c>
       <c r="B540" t="n">
         <v>352.5</v>
@@ -17735,7 +17735,7 @@
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>1321784.064000036</v>
+        <v>856381.1520000235</v>
       </c>
       <c r="B541" t="n">
         <v>457.5</v>
@@ -17767,7 +17767,7 @@
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>1323203.184000035</v>
+        <v>857800.2720000227</v>
       </c>
       <c r="B542" t="n">
         <v>457.5</v>
@@ -17799,7 +17799,7 @@
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>1324486.080000035</v>
+        <v>859083.1680000224</v>
       </c>
       <c r="B543" t="n">
         <v>355</v>
@@ -17831,7 +17831,7 @@
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>1330118.208000035</v>
+        <v>862683.1680000224</v>
       </c>
       <c r="B544" t="n">
         <v>457.5</v>
@@ -17863,7 +17863,7 @@
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>1334044.944000035</v>
+        <v>866283.1680000224</v>
       </c>
       <c r="B545" t="n">
         <v>357.5</v>
@@ -17895,7 +17895,7 @@
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>1334680.704000035</v>
+        <v>866918.9280000222</v>
       </c>
       <c r="B546" t="n">
         <v>455</v>
@@ -17927,7 +17927,7 @@
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>1345273.632000036</v>
+        <v>870518.9280000222</v>
       </c>
       <c r="B547" t="n">
         <v>357.5</v>
@@ -17959,7 +17959,7 @@
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>1346770.368000035</v>
+        <v>872015.6640000218</v>
       </c>
       <c r="B548" t="n">
         <v>455</v>
@@ -17991,7 +17991,7 @@
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>1350751.104000035</v>
+        <v>875615.6640000218</v>
       </c>
       <c r="B549" t="n">
         <v>360</v>
@@ -18023,7 +18023,7 @@
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>1351999.584000035</v>
+        <v>876864.1440000222</v>
       </c>
       <c r="B550" t="n">
         <v>455</v>
@@ -18055,7 +18055,7 @@
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>1362568.896000036</v>
+        <v>880464.1440000222</v>
       </c>
       <c r="B551" t="n">
         <v>360</v>
@@ -18087,7 +18087,7 @@
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>1363061.808000037</v>
+        <v>880957.0560000227</v>
       </c>
       <c r="B552" t="n">
         <v>455</v>
@@ -18119,7 +18119,7 @@
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>1369524.384000036</v>
+        <v>884557.0560000227</v>
       </c>
       <c r="B553" t="n">
         <v>362.5</v>
@@ -18151,7 +18151,7 @@
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>1369968.912000037</v>
+        <v>885001.5840000235</v>
       </c>
       <c r="B554" t="n">
         <v>455</v>
@@ -18183,7 +18183,7 @@
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>1375430.400000037</v>
+        <v>888601.5840000235</v>
       </c>
       <c r="B555" t="n">
         <v>365</v>
@@ -18215,7 +18215,7 @@
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>1375437.888000037</v>
+        <v>888901.5840000235</v>
       </c>
       <c r="B556" t="n">
         <v>455</v>
@@ -18247,7 +18247,7 @@
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>1379821.392000036</v>
+        <v>892501.5840000235</v>
       </c>
       <c r="B557" t="n">
         <v>365</v>
@@ -18279,7 +18279,7 @@
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>1379829.600000034</v>
+        <v>892801.5840000237</v>
       </c>
       <c r="B558" t="n">
         <v>365</v>
@@ -18311,7 +18311,7 @@
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>1382391.648000035</v>
+        <v>895363.6320000241</v>
       </c>
       <c r="B559" t="n">
         <v>455</v>
@@ -18343,7 +18343,7 @@
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>1393095.888000035</v>
+        <v>898963.6320000241</v>
       </c>
       <c r="B560" t="n">
         <v>367.5</v>
@@ -18375,7 +18375,7 @@
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>1394852.400000035</v>
+        <v>900720.1440000242</v>
       </c>
       <c r="B561" t="n">
         <v>370</v>
@@ -18407,7 +18407,7 @@
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>1400032.944000035</v>
+        <v>904320.1440000242</v>
       </c>
       <c r="B562" t="n">
         <v>452.5</v>
@@ -18439,7 +18439,7 @@
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>1410201.936000035</v>
+        <v>907920.1440000242</v>
       </c>
       <c r="B563" t="n">
         <v>375</v>
@@ -18471,7 +18471,7 @@
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>1412677.296000035</v>
+        <v>910395.5040000236</v>
       </c>
       <c r="B564" t="n">
         <v>450</v>
@@ -18503,7 +18503,7 @@
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>1415830.464000034</v>
+        <v>913548.6720000231</v>
       </c>
       <c r="B565" t="n">
         <v>375</v>
@@ -18535,7 +18535,7 @@
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>1416702.096000034</v>
+        <v>914420.3040000224</v>
       </c>
       <c r="B566" t="n">
         <v>375</v>
@@ -18567,7 +18567,7 @@
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>1423946.160000035</v>
+        <v>918020.3040000224</v>
       </c>
       <c r="B567" t="n">
         <v>450</v>
@@ -18599,7 +18599,7 @@
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>1424847.312000034</v>
+        <v>918921.4560000212</v>
       </c>
       <c r="B568" t="n">
         <v>375</v>
@@ -18631,7 +18631,7 @@
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>1435059.648000035</v>
+        <v>922521.4560000212</v>
       </c>
       <c r="B569" t="n">
         <v>377.5</v>
@@ -18663,7 +18663,7 @@
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>1435246.704000035</v>
+        <v>922821.4560000211</v>
       </c>
       <c r="B570" t="n">
         <v>450</v>
@@ -18695,7 +18695,7 @@
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>1435257.216000035</v>
+        <v>923121.456000021</v>
       </c>
       <c r="B571" t="n">
         <v>377.5</v>
@@ -18727,7 +18727,7 @@
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>1435538.016000034</v>
+        <v>923421.456000021</v>
       </c>
       <c r="B572" t="n">
         <v>450</v>
@@ -18759,7 +18759,7 @@
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>1440116.352000035</v>
+        <v>927021.456000021</v>
       </c>
       <c r="B573" t="n">
         <v>377.5</v>
@@ -18791,7 +18791,7 @@
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>1441132.560000035</v>
+        <v>928037.6640000216</v>
       </c>
       <c r="B574" t="n">
         <v>450</v>
@@ -18823,7 +18823,7 @@
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>1443902.688000034</v>
+        <v>930807.7920000203</v>
       </c>
       <c r="B575" t="n">
         <v>380</v>
@@ -18855,7 +18855,7 @@
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>1448597.232000034</v>
+        <v>934407.7920000203</v>
       </c>
       <c r="B576" t="n">
         <v>380</v>
@@ -18887,7 +18887,7 @@
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>1457535.456000034</v>
+        <v>938007.7920000203</v>
       </c>
       <c r="B577" t="n">
         <v>380</v>
@@ -18919,7 +18919,7 @@
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>1461721.680000033</v>
+        <v>941607.7920000203</v>
       </c>
       <c r="B578" t="n">
         <v>380</v>
@@ -18951,7 +18951,7 @@
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>1465280.064000033</v>
+        <v>945166.17600002</v>
       </c>
       <c r="B579" t="n">
         <v>447.5</v>
@@ -18983,7 +18983,7 @@
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>1466722.512000033</v>
+        <v>946608.6240000207</v>
       </c>
       <c r="B580" t="n">
         <v>447.5</v>
@@ -19015,7 +19015,7 @@
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>1472940.432000033</v>
+        <v>950208.6240000207</v>
       </c>
       <c r="B581" t="n">
         <v>447.5</v>
@@ -19047,7 +19047,7 @@
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>1474325.280000033</v>
+        <v>951593.4720000201</v>
       </c>
       <c r="B582" t="n">
         <v>385</v>
@@ -19079,7 +19079,7 @@
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>1480816.080000033</v>
+        <v>955193.4720000201</v>
       </c>
       <c r="B583" t="n">
         <v>447.5</v>
@@ -19111,7 +19111,7 @@
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>1484738.928000035</v>
+        <v>958793.4720000201</v>
       </c>
       <c r="B584" t="n">
         <v>447.5</v>
@@ -19143,7 +19143,7 @@
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>1485124.560000034</v>
+        <v>959179.1040000193</v>
       </c>
       <c r="B585" t="n">
         <v>385</v>
@@ -19175,7 +19175,7 @@
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>1488576.528000034</v>
+        <v>962631.0720000196</v>
       </c>
       <c r="B586" t="n">
         <v>447.5</v>
@@ -19207,7 +19207,7 @@
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>1501104.960000034</v>
+        <v>966231.0720000196</v>
       </c>
       <c r="B587" t="n">
         <v>387.5</v>
@@ -19239,7 +19239,7 @@
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>1504672.848000033</v>
+        <v>969798.960000018</v>
       </c>
       <c r="B588" t="n">
         <v>387.5</v>
@@ -19271,7 +19271,7 @@
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>1504766.592000033</v>
+        <v>970098.9600000179</v>
       </c>
       <c r="B589" t="n">
         <v>445</v>
@@ -19303,7 +19303,7 @@
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>1506897.360000033</v>
+        <v>972229.7280000171</v>
       </c>
       <c r="B590" t="n">
         <v>387.5</v>
@@ -19335,7 +19335,7 @@
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>1514862.144000033</v>
+        <v>975829.7280000171</v>
       </c>
       <c r="B591" t="n">
         <v>445</v>
@@ -19367,7 +19367,7 @@
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>1520417.520000033</v>
+        <v>979429.7280000171</v>
       </c>
       <c r="B592" t="n">
         <v>390</v>
@@ -19399,7 +19399,7 @@
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>1520900.784000033</v>
+        <v>979912.9920000177</v>
       </c>
       <c r="B593" t="n">
         <v>390</v>
@@ -19431,7 +19431,7 @@
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>1534613.472000032</v>
+        <v>983512.9920000177</v>
       </c>
       <c r="B594" t="n">
         <v>445</v>
@@ -19463,7 +19463,7 @@
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>1543490.784000033</v>
+        <v>987112.9920000177</v>
       </c>
       <c r="B595" t="n">
         <v>390</v>
@@ -19495,7 +19495,7 @@
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>1551055.824000032</v>
+        <v>990712.9920000177</v>
       </c>
       <c r="B596" t="n">
         <v>445</v>
@@ -19527,7 +19527,7 @@
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>1555747.056000033</v>
+        <v>994312.9920000177</v>
       </c>
       <c r="B597" t="n">
         <v>392.5</v>
@@ -19559,7 +19559,7 @@
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>1568603.808000033</v>
+        <v>997912.9920000177</v>
       </c>
       <c r="B598" t="n">
         <v>392.5</v>
@@ -19591,7 +19591,7 @@
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>1569268.944000033</v>
+        <v>998578.1280000176</v>
       </c>
       <c r="B599" t="n">
         <v>395</v>
@@ -19623,7 +19623,7 @@
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>1572642.576000034</v>
+        <v>1001951.760000019</v>
       </c>
       <c r="B600" t="n">
         <v>395</v>
@@ -19655,7 +19655,7 @@
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>1576352.016000034</v>
+        <v>1005551.760000019</v>
       </c>
       <c r="B601" t="n">
         <v>440</v>
@@ -19687,7 +19687,7 @@
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>1584104.688000034</v>
+        <v>1009151.760000019</v>
       </c>
       <c r="B602" t="n">
         <v>395</v>
@@ -19719,7 +19719,7 @@
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>1590788.304000035</v>
+        <v>1012751.760000019</v>
       </c>
       <c r="B603" t="n">
         <v>397.5</v>
@@ -19751,7 +19751,7 @@
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>1595293.920000035</v>
+        <v>1016351.760000019</v>
       </c>
       <c r="B604" t="n">
         <v>397.5</v>
@@ -19783,7 +19783,7 @@
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>1603127.808000033</v>
+        <v>1019951.760000019</v>
       </c>
       <c r="B605" t="n">
         <v>397.5</v>
@@ -19815,7 +19815,7 @@
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>1603650.816000035</v>
+        <v>1020474.76800002</v>
       </c>
       <c r="B606" t="n">
         <v>397.5</v>
@@ -19847,7 +19847,7 @@
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>1617647.616000034</v>
+        <v>1024074.76800002</v>
       </c>
       <c r="B607" t="n">
         <v>437.5</v>
@@ -19879,7 +19879,7 @@
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>1627580.736000035</v>
+        <v>1027674.76800002</v>
       </c>
       <c r="B608" t="n">
         <v>400</v>
@@ -19911,7 +19911,7 @@
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>1634249.808000033</v>
+        <v>1031274.76800002</v>
       </c>
       <c r="B609" t="n">
         <v>437.5</v>
@@ -19943,7 +19943,7 @@
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>1640808.432000035</v>
+        <v>1034874.76800002</v>
       </c>
       <c r="B610" t="n">
         <v>437.5</v>
@@ -19975,7 +19975,7 @@
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>1654138.080000035</v>
+        <v>1038474.76800002</v>
       </c>
       <c r="B611" t="n">
         <v>400</v>
@@ -20007,7 +20007,7 @@
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>1654236.000000035</v>
+        <v>1038774.76800002</v>
       </c>
       <c r="B612" t="n">
         <v>400</v>
@@ -20039,7 +20039,7 @@
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>1656209.952000035</v>
+        <v>1040748.72000002</v>
       </c>
       <c r="B613" t="n">
         <v>400</v>
@@ -20071,7 +20071,7 @@
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>1661678.208000035</v>
+        <v>1044348.72000002</v>
       </c>
       <c r="B614" t="n">
         <v>435</v>
@@ -20103,7 +20103,7 @@
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>1661678.784000037</v>
+        <v>1044648.72000002</v>
       </c>
       <c r="B615" t="n">
         <v>400</v>
@@ -20135,7 +20135,7 @@
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>1665379.152000037</v>
+        <v>1048248.72000002</v>
       </c>
       <c r="B616" t="n">
         <v>435</v>
@@ -20167,7 +20167,7 @@
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>1666933.056000039</v>
+        <v>1049802.624000021</v>
       </c>
       <c r="B617" t="n">
         <v>402.5</v>
@@ -20199,7 +20199,7 @@
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>1668472.848000038</v>
+        <v>1051342.41600002</v>
       </c>
       <c r="B618" t="n">
         <v>435</v>
@@ -20231,7 +20231,7 @@
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>1678594.032000039</v>
+        <v>1054942.41600002</v>
       </c>
       <c r="B619" t="n">
         <v>435</v>
@@ -20263,7 +20263,7 @@
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>1687144.464000038</v>
+        <v>1058542.41600002</v>
       </c>
       <c r="B620" t="n">
         <v>402.5</v>
@@ -20295,7 +20295,7 @@
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>1689862.752000039</v>
+        <v>1061260.704000021</v>
       </c>
       <c r="B621" t="n">
         <v>432.5</v>
@@ -20327,7 +20327,7 @@
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>1691299.584000039</v>
+        <v>1062697.536000021</v>
       </c>
       <c r="B622" t="n">
         <v>432.5</v>
@@ -20359,7 +20359,7 @@
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>1692840.816000038</v>
+        <v>1064238.76800002</v>
       </c>
       <c r="B623" t="n">
         <v>405</v>
@@ -20391,7 +20391,7 @@
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>1694341.440000038</v>
+        <v>1065739.39200002</v>
       </c>
       <c r="B624" t="n">
         <v>405</v>
@@ -20423,7 +20423,7 @@
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>1706293.296000039</v>
+        <v>1069339.39200002</v>
       </c>
       <c r="B625" t="n">
         <v>432.5</v>
@@ -20455,7 +20455,7 @@
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>1706912.06400004</v>
+        <v>1069958.160000021</v>
       </c>
       <c r="B626" t="n">
         <v>432.5</v>
@@ -20487,7 +20487,7 @@
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>1719034.70400004</v>
+        <v>1073558.160000021</v>
       </c>
       <c r="B627" t="n">
         <v>432.5</v>
@@ -20519,7 +20519,7 @@
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>1725602.832000041</v>
+        <v>1077158.160000021</v>
       </c>
       <c r="B628" t="n">
         <v>407.5</v>
@@ -20551,7 +20551,7 @@
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>1731422.448000042</v>
+        <v>1080758.160000021</v>
       </c>
       <c r="B629" t="n">
         <v>407.5</v>
@@ -20583,7 +20583,7 @@
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>1735652.160000041</v>
+        <v>1084358.160000021</v>
       </c>
       <c r="B630" t="n">
         <v>407.5</v>
@@ -20615,7 +20615,7 @@
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>1736092.368000041</v>
+        <v>1084798.368000022</v>
       </c>
       <c r="B631" t="n">
         <v>407.5</v>
@@ -20647,7 +20647,7 @@
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>1736860.752000041</v>
+        <v>1085566.752000021</v>
       </c>
       <c r="B632" t="n">
         <v>430</v>
@@ -20679,7 +20679,7 @@
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>1739573.424000039</v>
+        <v>1088279.424000019</v>
       </c>
       <c r="B633" t="n">
         <v>430</v>
@@ -20711,7 +20711,7 @@
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>1743817.24800004</v>
+        <v>1091879.424000019</v>
       </c>
       <c r="B634" t="n">
         <v>430</v>
@@ -20743,7 +20743,7 @@
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>1756787.32800004</v>
+        <v>1095479.424000019</v>
       </c>
       <c r="B635" t="n">
         <v>412.5</v>
@@ -20775,7 +20775,7 @@
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>1767167.71200004</v>
+        <v>1099079.424000019</v>
       </c>
       <c r="B636" t="n">
         <v>412.5</v>
@@ -20807,7 +20807,7 @@
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>1770668.640000041</v>
+        <v>1102580.352000021</v>
       </c>
       <c r="B637" t="n">
         <v>430</v>
@@ -20839,7 +20839,7 @@
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>1778368.89600004</v>
+        <v>1106180.352000021</v>
       </c>
       <c r="B638" t="n">
         <v>412.5</v>
@@ -20871,7 +20871,7 @@
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>1779835.68000004</v>
+        <v>1107647.136000021</v>
       </c>
       <c r="B639" t="n">
         <v>430</v>
@@ -20903,7 +20903,7 @@
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>1780851.456000041</v>
+        <v>1108662.912000021</v>
       </c>
       <c r="B640" t="n">
         <v>415</v>
@@ -20935,7 +20935,7 @@
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>1781282.016000042</v>
+        <v>1109093.472000022</v>
       </c>
       <c r="B641" t="n">
         <v>430</v>
@@ -20967,7 +20967,7 @@
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>1784811.024000041</v>
+        <v>1112622.480000021</v>
       </c>
       <c r="B642" t="n">
         <v>430</v>
@@ -20999,7 +20999,7 @@
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>1785866.97600004</v>
+        <v>1113678.432000021</v>
       </c>
       <c r="B643" t="n">
         <v>427.5</v>
@@ -21031,7 +21031,7 @@
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>1788815.232000039</v>
+        <v>1116626.68800002</v>
       </c>
       <c r="B644" t="n">
         <v>417.5</v>
@@ -21063,7 +21063,7 @@
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>1789454.73600004</v>
+        <v>1117266.192000021</v>
       </c>
       <c r="B645" t="n">
         <v>427.5</v>
@@ -21095,7 +21095,7 @@
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>1800728.35200004</v>
+        <v>1120866.192000021</v>
       </c>
       <c r="B646" t="n">
         <v>417.5</v>
@@ -21127,7 +21127,7 @@
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>1805520.528000041</v>
+        <v>1124466.192000021</v>
       </c>
       <c r="B647" t="n">
         <v>427.5</v>
@@ -21159,7 +21159,7 @@
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>1810473.696000041</v>
+        <v>1128066.192000021</v>
       </c>
       <c r="B648" t="n">
         <v>420</v>
@@ -21191,7 +21191,7 @@
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>1811116.512000041</v>
+        <v>1128709.00800002</v>
       </c>
       <c r="B649" t="n">
         <v>427.5</v>
@@ -21223,7 +21223,7 @@
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>1815216.912000041</v>
+        <v>1132309.00800002</v>
       </c>
       <c r="B650" t="n">
         <v>420</v>
@@ -21255,7 +21255,7 @@
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>1815478.848000042</v>
+        <v>1132609.00800002</v>
       </c>
       <c r="B651" t="n">
         <v>422.5</v>
@@ -21287,7 +21287,7 @@
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>1816576.27200004</v>
+        <v>1133706.432000019</v>
       </c>
       <c r="B652" t="n">
         <v>420</v>
